--- a/Normal/xyz.xlsx
+++ b/Normal/xyz.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Sprider  爪巴\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F18ABDE-2EF6-4B9D-9D59-272BB872A722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F57305C-9573-4AB3-B255-8897CE54E531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="福利姬" sheetId="1" r:id="rId1"/>
+    <sheet name="图站" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="593">
   <si>
     <t>地址</t>
   </si>
@@ -34,12 +35,18 @@
     <t>解压密码回复</t>
   </si>
   <si>
+    <t xml:space="preserve"> pan.baidu.coms/1bikvRYhbj7ONTxsw67MnMA</t>
+  </si>
+  <si>
     <t>tw86</t>
   </si>
   <si>
     <t>福利姬韶陌陌</t>
   </si>
   <si>
+    <t>回复63获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/184Ih2ecdA7Q3jXgqMTVqZw</t>
   </si>
   <si>
@@ -49,6 +56,9 @@
     <t>福利姬工口小妖精</t>
   </si>
   <si>
+    <t>回复62获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/11ZvTSdkIhiIrsIkWnWl1nA </t>
   </si>
   <si>
@@ -58,6 +68,9 @@
     <t>福利姬软萌萝莉小仙</t>
   </si>
   <si>
+    <t>回复61获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1lBkCrJmr9QFYheRJeSgJng</t>
   </si>
   <si>
@@ -67,6 +80,9 @@
     <t>福利姬魔法少女小柠檬</t>
   </si>
   <si>
+    <t>回复60获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1hRd5yiPfOIsyQeSdzmrNlQ</t>
   </si>
   <si>
@@ -76,6 +92,9 @@
     <t>福利姬太宰子颖</t>
   </si>
   <si>
+    <t>回复59获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1fZGhQWqLxi8papSLUs6lzw</t>
   </si>
   <si>
@@ -85,6 +104,9 @@
     <t>福利姬少女九</t>
   </si>
   <si>
+    <t>回复58获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1VcTOCO6lvd9vYFPG4sqZbQ</t>
   </si>
   <si>
@@ -94,6 +116,9 @@
     <t>福利姬液液酱</t>
   </si>
   <si>
+    <t>回复57获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1M0O6O3Urgvvu3zTtZ-NapA</t>
   </si>
   <si>
@@ -103,6 +128,9 @@
     <t>福利姬押尾猫</t>
   </si>
   <si>
+    <t>回复56获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1I-LAQC9FMBrrLS1jwFv95Q</t>
   </si>
   <si>
@@ -112,6 +140,9 @@
     <t>福利姬呆萌橘子酱</t>
   </si>
   <si>
+    <t>回复55获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1kIuokjntOs4dfOWCMCc9iA</t>
   </si>
   <si>
@@ -121,12 +152,21 @@
     <t>福利姬橙香静静</t>
   </si>
   <si>
+    <t>回复54获取解压密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://pan.baidu.com/s/1Q-gU-pGbCxKYVMc85t0ceA</t>
+  </si>
+  <si>
     <t>u4p3</t>
   </si>
   <si>
     <t>福利姬千岁娇</t>
   </si>
   <si>
+    <t>回复53获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1Tswc20OzPr8-ZwgDAso1Cw</t>
   </si>
   <si>
@@ -136,6 +176,9 @@
     <t>福利姬完具2019-2020收费资源独家公开</t>
   </si>
   <si>
+    <t>EMbeT6M44aCL5sKM</t>
+  </si>
+  <si>
     <t xml:space="preserve"> https://pan.baidu.com/s/1Tb9rjWde_DVmQr2izYFKKA</t>
   </si>
   <si>
@@ -145,6 +188,9 @@
     <t>福利姬软软趴在床单上</t>
   </si>
   <si>
+    <t>回复52获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/18BxQlhiPqoBiXNQEECYb-Q</t>
   </si>
   <si>
@@ -154,6 +200,9 @@
     <t>福利姬麻酥酥</t>
   </si>
   <si>
+    <t>回复51获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1agdgwm-vv5j7lMn75HGi8A</t>
   </si>
   <si>
@@ -163,6 +212,9 @@
     <t>福利姬布丁大法（我是一只啾）</t>
   </si>
   <si>
+    <t>回复50获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1lnzUcdUoUBZ9XgflE9Glzg</t>
   </si>
   <si>
@@ -172,6 +224,9 @@
     <t>福利姬你们的小秋秋</t>
   </si>
   <si>
+    <t>回复49获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/14Nd7aauJZ6fUmQ33bRIymA</t>
   </si>
   <si>
@@ -181,6 +236,9 @@
     <t>福利姬元气少女狸花追</t>
   </si>
   <si>
+    <t>回复48获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1hQlkqvLYsjBVtDBplAg6jA</t>
   </si>
   <si>
@@ -190,6 +248,9 @@
     <t>福利姬少女枪械师</t>
   </si>
   <si>
+    <t>回复47获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1fqIxUSGI4VcgW0wi90CusQ</t>
   </si>
   <si>
@@ -199,6 +260,9 @@
     <t>福利姬逐月su</t>
   </si>
   <si>
+    <t>回复46获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1mSmGhA6Yj7LxCLfdkWPQIg</t>
   </si>
   <si>
@@ -208,6 +272,9 @@
     <t>福利姬鱼鱼喵s</t>
   </si>
   <si>
+    <t>回复45获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1xOle1-KIjWJQbzx_bC7qiA</t>
   </si>
   <si>
@@ -217,6 +284,9 @@
     <t>福利姬音波酱（樱木川田）</t>
   </si>
   <si>
+    <t>回复44获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1X3ijdPB-4wQG2hEExWznXg</t>
   </si>
   <si>
@@ -226,6 +296,9 @@
     <t>福利姬dudu小忍</t>
   </si>
   <si>
+    <t>回复43获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/11-kixorGGrFx4Hu-rNc8ww</t>
   </si>
   <si>
@@ -235,6 +308,9 @@
     <t>福利姬安久奈白</t>
   </si>
   <si>
+    <t>回复42获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1qhEc4HXO08Ed-9kl0v9NUA</t>
   </si>
   <si>
@@ -244,6 +320,9 @@
     <t>福利姬兜兜飞</t>
   </si>
   <si>
+    <t>回复41获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1kHJckk11VbWvn32ohYfFiQ</t>
   </si>
   <si>
@@ -253,6 +332,9 @@
     <t>福利姬发条少女YoKi</t>
   </si>
   <si>
+    <t>回复40获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1qu8lpPrpqSWLjxvXwDq_sQ</t>
   </si>
   <si>
@@ -262,6 +344,9 @@
     <t>福利姬斯洛克甜心</t>
   </si>
   <si>
+    <t>回复39获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1DZ4rFMJcEUJScT-nTB40lA</t>
   </si>
   <si>
@@ -271,6 +356,9 @@
     <t>福利姬快点亲亲我吖</t>
   </si>
   <si>
+    <t>回复38获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/19OBPNGDhx5dT9E98sjo_SQ</t>
   </si>
   <si>
@@ -280,6 +368,9 @@
     <t>福利姬萌犬一只</t>
   </si>
   <si>
+    <t>回复37获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1OSFH_fTwn2rIVTA7QaHtCg</t>
   </si>
   <si>
@@ -289,6 +380,9 @@
     <t>福利姬千舞樱洛</t>
   </si>
   <si>
+    <t>回复36获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1lHw-PBOig9goen8uQ2eyOQ</t>
   </si>
   <si>
@@ -298,6 +392,9 @@
     <t>福利姬咬一口小奈樱（九尾狐狸m）</t>
   </si>
   <si>
+    <t>回复35获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1JAT92T73uge4rmUgkKAIpw</t>
   </si>
   <si>
@@ -307,6 +404,9 @@
     <t>福利姬喵鱻姬</t>
   </si>
   <si>
+    <t>回复34获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1QO8E_-VWQiTML0rWRUDT1w</t>
   </si>
   <si>
@@ -316,6 +416,9 @@
     <t>福利姬Kanami酱</t>
   </si>
   <si>
+    <t>回复33获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1_eIsnZlXyKB48NqtsViA1g</t>
   </si>
   <si>
@@ -325,6 +428,9 @@
     <t>福利姬皮皮娘</t>
   </si>
   <si>
+    <t>回复32获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1YbDLR0qdMp92FxQM_EB0KQ</t>
   </si>
   <si>
@@ -334,6 +440,9 @@
     <t>福利姬俄罗斯合法萝莉Rocksy</t>
   </si>
   <si>
+    <t>回复31获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/17h2C9KP8IDaHy54xvAIOvA</t>
   </si>
   <si>
@@ -343,6 +452,9 @@
     <t>福利姬猫性大扎</t>
   </si>
   <si>
+    <t>回复30获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1CjTdXVe3UBUlKbVB7tLt7g</t>
   </si>
   <si>
@@ -352,6 +464,9 @@
     <t>福利姬甜心奶猫酱</t>
   </si>
   <si>
+    <t>回复29获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1BEZ4VcX5sxNcKv3oszk7zw</t>
   </si>
   <si>
@@ -361,6 +476,9 @@
     <t>摄影师宇航员</t>
   </si>
   <si>
+    <t>回复28获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1Ft81rAx2RQ8o69iVOi__fQ</t>
   </si>
   <si>
@@ -370,6 +488,9 @@
     <t>福利姬夏茉果果</t>
   </si>
   <si>
+    <t>回复27获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1tEzn_Or2wClSEEsqwD1XYA</t>
   </si>
   <si>
@@ -379,6 +500,9 @@
     <t>福利姬蛋黄姬</t>
   </si>
   <si>
+    <t>回复26获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1owplH3jaftHHTpymQOJDpw</t>
   </si>
   <si>
@@ -388,6 +512,9 @@
     <t>福利姬FSS（冯珊珊）</t>
   </si>
   <si>
+    <t>回复25获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1_0kQk9VzUJd1QQPf-MF9ag</t>
   </si>
   <si>
@@ -397,6 +524,9 @@
     <t>福利姬恶犬</t>
   </si>
   <si>
+    <t>回复24获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1qPrHxchzhtyUdhz9Iom4KQ </t>
   </si>
   <si>
@@ -406,6 +536,9 @@
     <t>福利姬萌汁</t>
   </si>
   <si>
+    <t>回复23获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1wI2vjYD_uXcKGiKP2aHl5A</t>
   </si>
   <si>
@@ -415,6 +548,9 @@
     <t>福利姬三寸萝莉</t>
   </si>
   <si>
+    <t>回复21获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1O1bVuyIDeMbgtqXdNQduZQ</t>
   </si>
   <si>
@@ -424,6 +560,9 @@
     <t>福利姬Ran冉酱</t>
   </si>
   <si>
+    <t>回复22获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1_tTQb-rJQk4CzmsyA94QZQ</t>
   </si>
   <si>
@@ -433,6 +572,9 @@
     <t>福利姬吃一口兔子</t>
   </si>
   <si>
+    <t>回复20获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1TWiEnbFAYMu0fl4aRy41vA</t>
   </si>
   <si>
@@ -442,6 +584,9 @@
     <t>福利姬隔壁小姐姐</t>
   </si>
   <si>
+    <t>回复19获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1G7MwELS1BVX3kKsyGy4RGw</t>
   </si>
   <si>
@@ -451,6 +596,9 @@
     <t>福利姬猫女王的日常</t>
   </si>
   <si>
+    <t>回复18获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/19VYxpiPxXE9yanBTnQ-Z0w</t>
   </si>
   <si>
@@ -460,6 +608,9 @@
     <t>福利姬萌白酱（甜味弥漫）</t>
   </si>
   <si>
+    <t>回复17获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1UZf8_zAy-VWKi3SKHqv64A</t>
   </si>
   <si>
@@ -469,6 +620,9 @@
     <t>福利姬私人玩物</t>
   </si>
   <si>
+    <t>回复10获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1idk-N7cTn_m2qQLfOALxEQ</t>
   </si>
   <si>
@@ -478,6 +632,9 @@
     <t>福利姬芝麻酱</t>
   </si>
   <si>
+    <t>回复16获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1iARO_caYg_nQJXJZewiq1A</t>
   </si>
   <si>
@@ -487,6 +644,9 @@
     <t>福利姬我是你可爱的小猫</t>
   </si>
   <si>
+    <t>回复15获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1XDs6OeZhFpbQlt6kZWA8_g</t>
   </si>
   <si>
@@ -496,6 +656,9 @@
     <t>福利姬由衣酱yu1</t>
   </si>
   <si>
+    <t>回复14获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1xuGLgQIGzQQfogLiQjhDZQ</t>
   </si>
   <si>
@@ -505,12 +668,21 @@
     <t>福利姬西尔酱</t>
   </si>
   <si>
+    <t>回复13获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> https://pan.baidu.com/s/1QO5NvcNJr0UM31MHrti-1A</t>
   </si>
   <si>
     <t>qbmd</t>
   </si>
   <si>
+    <t>福利姬桜井寧寧</t>
+  </si>
+  <si>
+    <t>回复12获取解压密码mY2rIjcO0SHA128a</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1OyElOIh84ZUTo8o2-rd5dg</t>
   </si>
   <si>
@@ -520,6 +692,21 @@
     <t>福利姬少女映画</t>
   </si>
   <si>
+    <t>回复11获取解压密码</t>
+  </si>
+  <si>
+    <t>ueWr1bnwBr281KlF</t>
+  </si>
+  <si>
+    <t>IW5PyuWWRj4VDz17</t>
+  </si>
+  <si>
+    <t>bo8zgC4nLjIAgYZK</t>
+  </si>
+  <si>
+    <t>O1yk0ZAgcGfdMlOX</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1YRK78YometrXBrFAkhdHnQ</t>
   </si>
   <si>
@@ -529,6 +716,9 @@
     <t>福利姬柚木Yuzuki</t>
   </si>
   <si>
+    <t>回复8获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1iIvLK0lFLDbbvekRqIbNpA</t>
   </si>
   <si>
@@ -538,6 +728,9 @@
     <t>福利姬完具少女</t>
   </si>
   <si>
+    <t>回复9获取解压密码3P84QeQyn6eKaP9Y</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1bkpLMmbwGySgnaD_QpLM0g</t>
   </si>
   <si>
@@ -547,6 +740,9 @@
     <t>福利姬饲育系少女X</t>
   </si>
   <si>
+    <t>回复7获取解压密码BnTwjMks1Q2IsHSG</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1ARAZcR2d6OxONyphespE5Q</t>
   </si>
   <si>
@@ -556,6 +752,9 @@
     <t>福利姬习呆呆</t>
   </si>
   <si>
+    <t>回复6获取解压密码9b2IExfQyKFFEbtZ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1QCtWb4ifOAIIkvs4bG4sQw</t>
   </si>
   <si>
@@ -565,6 +764,9 @@
     <t>福利姬元气小奈音</t>
   </si>
   <si>
+    <t>回复5获取解压密码9jDIz0V6KckRBYgv</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1DZmPtFzEewL42i7wRBKKuQ</t>
   </si>
   <si>
@@ -574,6 +776,9 @@
     <t>福利姬原来是茜公举殿下</t>
   </si>
   <si>
+    <t>回复4获取解压密码fCduSQdW4az8ZPfj</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1K6ldwaIowMJr1UYCf2RFow</t>
   </si>
   <si>
@@ -583,6 +788,9 @@
     <t>福利姬麻花酱</t>
   </si>
   <si>
+    <t>回复3获取解压密码YmYdqnod1lNM4E90</t>
+  </si>
+  <si>
     <t xml:space="preserve"> https://pan.baidu.com/s/1ty2xqre10FbajwQsBYT4Ow</t>
   </si>
   <si>
@@ -592,239 +800,1007 @@
     <t>福利姬Shika小鹿鹿</t>
   </si>
   <si>
+    <t>回复2获取解压密码6B4jzulTGhw0UYrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1Xn5EfqELoCmbeL0A6iXGnQ</t>
+  </si>
+  <si>
     <t>dr3t</t>
   </si>
   <si>
-    <t>EMbeT6M44aCL5sKM</t>
-  </si>
-  <si>
-    <t>回复63获取解压密码</t>
-  </si>
-  <si>
-    <t>回复62获取解压密码</t>
-  </si>
-  <si>
-    <t>回复61获取解压密码</t>
-  </si>
-  <si>
-    <t>回复60获取解压密码</t>
-  </si>
-  <si>
-    <t>回复59获取解压密码</t>
-  </si>
-  <si>
-    <t>回复58获取解压密码</t>
-  </si>
-  <si>
-    <t>回复57获取解压密码</t>
-  </si>
-  <si>
-    <t>回复56获取解压密码</t>
-  </si>
-  <si>
-    <t>回复55获取解压密码</t>
-  </si>
-  <si>
-    <t>回复54获取解压密码</t>
-  </si>
-  <si>
-    <t>回复53获取解压密码</t>
-  </si>
-  <si>
-    <t>回复52获取解压密码</t>
-  </si>
-  <si>
-    <t>回复51获取解压密码</t>
-  </si>
-  <si>
-    <t>回复50获取解压密码</t>
-  </si>
-  <si>
-    <t>回复49获取解压密码</t>
-  </si>
-  <si>
-    <t>回复48获取解压密码</t>
-  </si>
-  <si>
-    <t>回复47获取解压密码</t>
-  </si>
-  <si>
-    <t>回复46获取解压密码</t>
-  </si>
-  <si>
-    <t>回复45获取解压密码</t>
-  </si>
-  <si>
-    <t>回复44获取解压密码</t>
-  </si>
-  <si>
-    <t>回复43获取解压密码</t>
-  </si>
-  <si>
-    <t>回复42获取解压密码</t>
-  </si>
-  <si>
-    <t>回复41获取解压密码</t>
-  </si>
-  <si>
-    <t>回复40获取解压密码</t>
-  </si>
-  <si>
-    <t>回复39获取解压密码</t>
-  </si>
-  <si>
-    <t>回复38获取解压密码</t>
-  </si>
-  <si>
-    <t>回复37获取解压密码</t>
-  </si>
-  <si>
-    <t>回复36获取解压密码</t>
-  </si>
-  <si>
-    <t>回复35获取解压密码</t>
-  </si>
-  <si>
-    <t>回复34获取解压密码</t>
-  </si>
-  <si>
-    <t>回复33获取解压密码</t>
-  </si>
-  <si>
-    <t>回复32获取解压密码</t>
-  </si>
-  <si>
-    <t>回复31获取解压密码</t>
-  </si>
-  <si>
-    <t>回复30获取解压密码</t>
-  </si>
-  <si>
-    <t>回复29获取解压密码</t>
-  </si>
-  <si>
-    <t>回复28获取解压密码</t>
-  </si>
-  <si>
-    <t>回复27获取解压密码</t>
-  </si>
-  <si>
-    <t>回复26获取解压密码</t>
-  </si>
-  <si>
-    <t>回复25获取解压密码</t>
-  </si>
-  <si>
-    <t>回复24获取解压密码</t>
-  </si>
-  <si>
-    <t>回复23获取解压密码</t>
-  </si>
-  <si>
-    <t>回复21获取解压密码</t>
-  </si>
-  <si>
-    <t>回复22获取解压密码</t>
-  </si>
-  <si>
-    <t>回复20获取解压密码</t>
-  </si>
-  <si>
-    <t>回复19获取解压密码</t>
-  </si>
-  <si>
-    <t>回复18获取解压密码</t>
-  </si>
-  <si>
-    <t>回复17获取解压密码</t>
-  </si>
-  <si>
-    <t>回复10获取解压密码</t>
-  </si>
-  <si>
-    <t>回复16获取解压密码</t>
-  </si>
-  <si>
-    <t>回复15获取解压密码</t>
-  </si>
-  <si>
-    <t>回复14获取解压密码</t>
-  </si>
-  <si>
-    <t>回复13获取解压密码</t>
-  </si>
-  <si>
-    <t>回复11获取解压密码</t>
-  </si>
-  <si>
-    <t>回复8获取解压密码</t>
+    <t>福利姬过期米线线喵</t>
   </si>
   <si>
     <t>回复1获取解压密码RoQwYh0OsHgQlfbu</t>
+  </si>
+  <si>
+    <t>网址</t>
+  </si>
+  <si>
+    <t>网站名</t>
+  </si>
+  <si>
+    <t>K哦弄套图</t>
+  </si>
+  <si>
+    <t>https://m.meitulu.com/</t>
+  </si>
+  <si>
+    <t>美图录[地区]</t>
+  </si>
+  <si>
+    <t>美图录</t>
+  </si>
+  <si>
+    <t>http://www.7160.com</t>
+  </si>
+  <si>
+    <t>7160壁纸</t>
+  </si>
+  <si>
+    <t>http://www.win4000.com</t>
+  </si>
+  <si>
+    <t>win4000壁纸</t>
+  </si>
+  <si>
+    <t>http://www.mm131.net</t>
+  </si>
+  <si>
+    <t>mm131美女</t>
+  </si>
+  <si>
+    <t>http://m.mmonly.cc</t>
+  </si>
+  <si>
+    <t>MMOnly壁纸</t>
+  </si>
+  <si>
+    <t>http://www.jder.net</t>
+  </si>
+  <si>
+    <t>绝对领域</t>
+  </si>
+  <si>
+    <t>http://www.airenzhe.com</t>
+  </si>
+  <si>
+    <t>爱人者</t>
+  </si>
+  <si>
+    <t>https://www.nvshens.net</t>
+  </si>
+  <si>
+    <t>宅男女神</t>
+  </si>
+  <si>
+    <t>https://www.mzitu.com</t>
+  </si>
+  <si>
+    <t>妹子图</t>
+  </si>
+  <si>
+    <t>https://tu.heiguang.com</t>
+  </si>
+  <si>
+    <t>黑光图库</t>
+  </si>
+  <si>
+    <t>http://www.meitu131.com</t>
+  </si>
+  <si>
+    <t>美图131</t>
+  </si>
+  <si>
+    <t>美图131(女神)</t>
+  </si>
+  <si>
+    <t>http://www.fenmr.com</t>
+  </si>
+  <si>
+    <t>粉美人</t>
+  </si>
+  <si>
+    <t>http://www.meituba.com</t>
+  </si>
+  <si>
+    <t>美图吧</t>
+  </si>
+  <si>
+    <t>http://www.juemei.com</t>
+  </si>
+  <si>
+    <t>绝美网</t>
+  </si>
+  <si>
+    <t>https://www.tupianzj.com</t>
+  </si>
+  <si>
+    <t>美女之家</t>
+  </si>
+  <si>
+    <t>https://www.2meinv.com</t>
+  </si>
+  <si>
+    <t>爱美女</t>
+  </si>
+  <si>
+    <t>https://www.sm265.net</t>
+  </si>
+  <si>
+    <t>神马美女图</t>
+  </si>
+  <si>
+    <t>https://xiuren.club/</t>
+  </si>
+  <si>
+    <t>秀人俱乐部</t>
+  </si>
+  <si>
+    <t>https://www.yeitu.com</t>
+  </si>
+  <si>
+    <t>亿图</t>
+  </si>
+  <si>
+    <t>https://www.yeitu.com/</t>
+  </si>
+  <si>
+    <t>亿图百科</t>
+  </si>
+  <si>
+    <t>亿图女神</t>
+  </si>
+  <si>
+    <t>https://www.mei101.com</t>
+  </si>
+  <si>
+    <t>Mei101</t>
+  </si>
+  <si>
+    <t>https://www.snyys.com/wenzhang</t>
+  </si>
+  <si>
+    <t>邪恶.gif</t>
+  </si>
+  <si>
+    <t>http://www.meituri.com</t>
+  </si>
+  <si>
+    <t>美图日</t>
+  </si>
+  <si>
+    <t>http://www.2717.com</t>
+  </si>
+  <si>
+    <t>2717美女</t>
+  </si>
+  <si>
+    <t>http://www.gogortys.net</t>
+  </si>
+  <si>
+    <t>gogo人体</t>
+  </si>
+  <si>
+    <t>http://www.meizian.com</t>
+  </si>
+  <si>
+    <t>妹子庵</t>
+  </si>
+  <si>
+    <t>http://www.mmkk.me/</t>
+  </si>
+  <si>
+    <t>MMKK</t>
+  </si>
+  <si>
+    <t>https://www.95mm.net</t>
+  </si>
+  <si>
+    <t>MM范</t>
+  </si>
+  <si>
+    <t>http://www.duomeitu.com</t>
+  </si>
+  <si>
+    <t>多美图</t>
+  </si>
+  <si>
+    <t>https://www.mnttz.com</t>
+  </si>
+  <si>
+    <t>MNTTZ</t>
+  </si>
+  <si>
+    <t>https://htu4.com</t>
+  </si>
+  <si>
+    <t>黄桃图库</t>
+  </si>
+  <si>
+    <t>https://l91s.com</t>
+  </si>
+  <si>
+    <t>91国产精选</t>
+  </si>
+  <si>
+    <t>http://www.girlsky.cn</t>
+  </si>
+  <si>
+    <t>妹子天空</t>
+  </si>
+  <si>
+    <t>http://www.tuyim.vip</t>
+  </si>
+  <si>
+    <t>图意网</t>
+  </si>
+  <si>
+    <t>https://a7a7.net</t>
+  </si>
+  <si>
+    <t>阿七美图馆</t>
+  </si>
+  <si>
+    <t>http://www.mm8mm88.com</t>
+  </si>
+  <si>
+    <t>美眉吧</t>
+  </si>
+  <si>
+    <t>https://www.xgmn.org</t>
+  </si>
+  <si>
+    <t>性感美女网</t>
+  </si>
+  <si>
+    <t>http://www.wulewala.com</t>
+  </si>
+  <si>
+    <t>呜嘞哇啦</t>
+  </si>
+  <si>
+    <t>https://www.5ikantu.org</t>
+  </si>
+  <si>
+    <t>我爱看图</t>
+  </si>
+  <si>
+    <t>https://www.uu131.net</t>
+  </si>
+  <si>
+    <t>优优美女网</t>
+  </si>
+  <si>
+    <t>http://www.taotuxp.com</t>
+  </si>
+  <si>
+    <t>TaotuXP</t>
+  </si>
+  <si>
+    <t>http://www.ituba.cc</t>
+  </si>
+  <si>
+    <t>iTuba</t>
+  </si>
+  <si>
+    <t>https://www.kaka1234.com</t>
+  </si>
+  <si>
+    <t>Kaka1234</t>
+  </si>
+  <si>
+    <t>美图录[机构]</t>
+  </si>
+  <si>
+    <t>http://girl-atlas.net</t>
+  </si>
+  <si>
+    <t>girl-atlas</t>
+  </si>
+  <si>
+    <t>https://www.yun993.net</t>
+  </si>
+  <si>
+    <t>yun993</t>
+  </si>
+  <si>
+    <t>http://www.netbian.com</t>
+  </si>
+  <si>
+    <t>彼岸桌面</t>
+  </si>
+  <si>
+    <t>https://www.enterdesk.com</t>
+  </si>
+  <si>
+    <t>回车桌面</t>
+  </si>
+  <si>
+    <t>http://www.ywmeinv.com</t>
+  </si>
+  <si>
+    <t>YW美女图</t>
+  </si>
+  <si>
+    <t>http://wap.mn52.com</t>
+  </si>
+  <si>
+    <t>MN52</t>
+  </si>
+  <si>
+    <t>https://www.tz365.cn</t>
+  </si>
+  <si>
+    <t>tz365</t>
+  </si>
+  <si>
+    <t>https://m.gtmm.net</t>
+  </si>
+  <si>
+    <t>GTMM</t>
+  </si>
+  <si>
+    <t>http://www.19m5.com</t>
+  </si>
+  <si>
+    <t>19M5</t>
+  </si>
+  <si>
+    <t>https://www.192td.com</t>
+  </si>
+  <si>
+    <t>192TD</t>
+  </si>
+  <si>
+    <t>https://www.feizl.com</t>
+  </si>
+  <si>
+    <t>非主流</t>
+  </si>
+  <si>
+    <t>http://www.cocorenti.com</t>
+  </si>
+  <si>
+    <t>酷酷人体</t>
+  </si>
+  <si>
+    <t>http://www.ccrtcc.cc</t>
+  </si>
+  <si>
+    <t>西西人体</t>
+  </si>
+  <si>
+    <t>http://www.ojbk.cc</t>
+  </si>
+  <si>
+    <t>ojbk人体</t>
+  </si>
+  <si>
+    <t>https://www.hexuexiao.cn</t>
+  </si>
+  <si>
+    <t>靓丽图库</t>
+  </si>
+  <si>
+    <t>http://www.graphiscnn.com</t>
+  </si>
+  <si>
+    <t>依娃人体</t>
+  </si>
+  <si>
+    <t>http://www.xieshengrt.com</t>
+  </si>
+  <si>
+    <t>写生人体</t>
+  </si>
+  <si>
+    <t>http://www.009renti.com</t>
+  </si>
+  <si>
+    <t>009人体</t>
+  </si>
+  <si>
+    <t>http://uuuurt.com</t>
+  </si>
+  <si>
+    <t>优优人体</t>
+  </si>
+  <si>
+    <t>http://www.611renti.com</t>
+  </si>
+  <si>
+    <t>扭腰人体</t>
+  </si>
+  <si>
+    <t>https://www.keke234.com</t>
+  </si>
+  <si>
+    <t>keke234</t>
+  </si>
+  <si>
+    <t>http://meinv.aixiues.com</t>
+  </si>
+  <si>
+    <t>aixiues</t>
+  </si>
+  <si>
+    <t>https://www.24cos.com</t>
+  </si>
+  <si>
+    <t>24COS</t>
+  </si>
+  <si>
+    <t>https://www.24mntp.com</t>
+  </si>
+  <si>
+    <t>24MN</t>
+  </si>
+  <si>
+    <t>http://www.sasaone.com</t>
+  </si>
+  <si>
+    <t>sasaone</t>
+  </si>
+  <si>
+    <t>http://www.nmtaotu.com</t>
+  </si>
+  <si>
+    <t>女模套图</t>
+  </si>
+  <si>
+    <t>https://moemzi.com/</t>
+  </si>
+  <si>
+    <t>萌妹子</t>
+  </si>
+  <si>
+    <t>http://www.tpxl.com</t>
+  </si>
+  <si>
+    <t>TPXL</t>
+  </si>
+  <si>
+    <t>http://www.itmtu.net</t>
+  </si>
+  <si>
+    <t>爱淘美图</t>
+  </si>
+  <si>
+    <t>http://www.uwuguan.com</t>
+  </si>
+  <si>
+    <t>尤物馆</t>
+  </si>
+  <si>
+    <t>http://www.mm131.vip</t>
+  </si>
+  <si>
+    <t>MM131VIP</t>
+  </si>
+  <si>
+    <t>https://www.meinvheisi.cn</t>
+  </si>
+  <si>
+    <t>美女黑丝</t>
+  </si>
+  <si>
+    <t>http://www.xintp.com/meinv/</t>
+  </si>
+  <si>
+    <t>犀牛网</t>
+  </si>
+  <si>
+    <t>https://www.mlxrl.com</t>
+  </si>
+  <si>
+    <t>美丽新人类</t>
+  </si>
+  <si>
+    <t>http://www.mm8mm8.com</t>
+  </si>
+  <si>
+    <t>妹妹吧</t>
+  </si>
+  <si>
+    <t>http://59pic.92demo.com</t>
+  </si>
+  <si>
+    <t>59PIC</t>
+  </si>
+  <si>
+    <t>http://www.zdqx.com</t>
+  </si>
+  <si>
+    <t>ZDQX</t>
+  </si>
+  <si>
+    <t>https://www.qianqianhua.com</t>
+  </si>
+  <si>
+    <t>千千花</t>
+  </si>
+  <si>
+    <t>https://www.plmm.com.cn</t>
+  </si>
+  <si>
+    <t>漂亮美眉</t>
+  </si>
+  <si>
+    <t>http://www.mrhuace.com</t>
+  </si>
+  <si>
+    <t>花美人</t>
+  </si>
+  <si>
+    <t>http://www.wloob.com</t>
+  </si>
+  <si>
+    <t>萌萌妹纸</t>
+  </si>
+  <si>
+    <t>https://www.lanvshen.com</t>
+  </si>
+  <si>
+    <t>辣女神</t>
+  </si>
+  <si>
+    <t>http://mn99mm.com</t>
+  </si>
+  <si>
+    <t>99MM</t>
+  </si>
+  <si>
+    <t>http://www.souutu.com</t>
+  </si>
+  <si>
+    <t>搜优图</t>
+  </si>
+  <si>
+    <t>https://m.gogo51.com/</t>
+  </si>
+  <si>
+    <t>gogo51</t>
+  </si>
+  <si>
+    <t>https://www.f4mm.com</t>
+  </si>
+  <si>
+    <t>爱骚</t>
+  </si>
+  <si>
+    <t>http://zhainanfuliba.cc</t>
+  </si>
+  <si>
+    <t>宅男福利</t>
+  </si>
+  <si>
+    <t>https://hotgirl.biz</t>
+  </si>
+  <si>
+    <t>HotGirl</t>
+  </si>
+  <si>
+    <t>https://www.169tp.com</t>
+  </si>
+  <si>
+    <t>169TP</t>
+  </si>
+  <si>
+    <t>http://meinvtu.org</t>
+  </si>
+  <si>
+    <t>美女图</t>
+  </si>
+  <si>
+    <t>http://m.mmkx8.com</t>
+  </si>
+  <si>
+    <t>美眉开心吧</t>
+  </si>
+  <si>
+    <t>http://m.m.cgtpw.com</t>
+  </si>
+  <si>
+    <t>春光图片</t>
+  </si>
+  <si>
+    <t>http://m.meinvsj.com</t>
+  </si>
+  <si>
+    <t>美女世界</t>
+  </si>
+  <si>
+    <t>https://www.qxmhw.com</t>
+  </si>
+  <si>
+    <t>QXMHW</t>
+  </si>
+  <si>
+    <t>http://www.jueduifucong.com</t>
+  </si>
+  <si>
+    <t>绝对服从</t>
+  </si>
+  <si>
+    <t>https://tu.acgbox.org</t>
+  </si>
+  <si>
+    <t>ACG盒子</t>
+  </si>
+  <si>
+    <t>http://www.sipaiwu.com</t>
+  </si>
+  <si>
+    <t>私拍馆</t>
+  </si>
+  <si>
+    <t>http://www.whspin.com</t>
+  </si>
+  <si>
+    <t>网红屋</t>
+  </si>
+  <si>
+    <t>https://www.lovemmtu.net</t>
+  </si>
+  <si>
+    <t>爱MM图</t>
+  </si>
+  <si>
+    <t>https://www.3meinv.com</t>
+  </si>
+  <si>
+    <t>3美女</t>
+  </si>
+  <si>
+    <t>http://www.3764.net</t>
+  </si>
+  <si>
+    <t>3764</t>
+  </si>
+  <si>
+    <t>https://www.mm13.cc</t>
+  </si>
+  <si>
+    <t>MM13</t>
+  </si>
+  <si>
+    <t>https://m.3gbizhi.com</t>
+  </si>
+  <si>
+    <t>36壁纸</t>
+  </si>
+  <si>
+    <t>https://m.tupianzj.com</t>
+  </si>
+  <si>
+    <t>图片之家</t>
+  </si>
+  <si>
+    <t>https://obomm.com</t>
+  </si>
+  <si>
+    <t>OBOMM</t>
+  </si>
+  <si>
+    <t>https://www.tt98.com</t>
+  </si>
+  <si>
+    <t>TT98</t>
+  </si>
+  <si>
+    <t>http://zy.shopina.cn</t>
+  </si>
+  <si>
+    <t>好省</t>
+  </si>
+  <si>
+    <t>http://www.baimei.org</t>
+  </si>
+  <si>
+    <t>百妹</t>
+  </si>
+  <si>
+    <t>https://www.jpmmg.com</t>
+  </si>
+  <si>
+    <t>极品美媚馆</t>
+  </si>
+  <si>
+    <t>https://www.rtmma.com</t>
+  </si>
+  <si>
+    <t>人体美媚馆</t>
+  </si>
+  <si>
+    <t>https://www.80zu.com</t>
+  </si>
+  <si>
+    <t>80族</t>
+  </si>
+  <si>
+    <t>https://www.ku66.net</t>
+  </si>
+  <si>
+    <t>Ku66</t>
+  </si>
+  <si>
+    <t>https://www.girlsofdesire.org</t>
+  </si>
+  <si>
+    <t>girlsofdesire</t>
+  </si>
+  <si>
+    <t>https://www.7y7y.net</t>
+  </si>
+  <si>
+    <t>7Y7Y</t>
+  </si>
+  <si>
+    <t>http://www.zhainanmao.la</t>
+  </si>
+  <si>
+    <t>宅男猫</t>
+  </si>
+  <si>
+    <t>http://mzsock.com/mv/page/4/</t>
+  </si>
+  <si>
+    <t>美足</t>
+  </si>
+  <si>
+    <t>https://www.hottystop.com</t>
+  </si>
+  <si>
+    <t>hottystop</t>
+  </si>
+  <si>
+    <t>https://m.duodia.com</t>
+  </si>
+  <si>
+    <t>校花网</t>
+  </si>
+  <si>
+    <t>https://m.tuiimg.com</t>
+  </si>
+  <si>
+    <t>推图网</t>
+  </si>
+  <si>
+    <t>https://www.tuiimg.com</t>
+  </si>
+  <si>
+    <t>推图</t>
+  </si>
+  <si>
+    <t>https://www.hn7b.com</t>
+  </si>
+  <si>
+    <t>HN7B</t>
+  </si>
+  <si>
+    <t>https://duoer.wpblog.jp</t>
+  </si>
+  <si>
+    <t>wpblog</t>
+  </si>
+  <si>
+    <t>http://pxy99.com</t>
+  </si>
+  <si>
+    <t>PXY99</t>
+  </si>
+  <si>
+    <t>http://nsfwpicx.com/</t>
+  </si>
+  <si>
+    <t>NSFWPICX</t>
+  </si>
+  <si>
+    <t>http://zazhitaotu.com</t>
+  </si>
+  <si>
+    <t>杂志桃图</t>
+  </si>
+  <si>
+    <t>http://www.cosplay8.com</t>
+  </si>
+  <si>
+    <t>Cosplay8</t>
+  </si>
+  <si>
+    <t>http://nicocos.net</t>
+  </si>
+  <si>
+    <t>绅士图书馆</t>
+  </si>
+  <si>
+    <t>https://www.wsgxo.com</t>
+  </si>
+  <si>
+    <t>微时光图艺</t>
+  </si>
+  <si>
+    <t>https://www.lmmpic.com/</t>
+  </si>
+  <si>
+    <t>柠檬皮</t>
+  </si>
+  <si>
+    <t>https://www.changshifang.com</t>
+  </si>
+  <si>
+    <t>常识坊</t>
+  </si>
+  <si>
+    <t>http://www.snh0048.com</t>
+  </si>
+  <si>
+    <t>AKB48</t>
+  </si>
+  <si>
+    <t>https://www.meikebi.com</t>
+  </si>
+  <si>
+    <t>番号列表</t>
+  </si>
+  <si>
+    <t>https://www.cosplaymore.com</t>
+  </si>
+  <si>
+    <t>cosplaymore</t>
+  </si>
+  <si>
+    <t>https://www.manrenshijie.com</t>
+  </si>
+  <si>
+    <t>男人世界</t>
+  </si>
+  <si>
+    <t>https://www.acgtang.com</t>
+  </si>
+  <si>
+    <t>次元堂</t>
+  </si>
+  <si>
+    <t>https://www.xiezhentaotu.com</t>
+  </si>
+  <si>
+    <t>写真套图</t>
+  </si>
+  <si>
+    <t>https://www.tutudao.net</t>
+  </si>
+  <si>
+    <t>图图岛</t>
+  </si>
+  <si>
+    <t>http://www.tugeba.com</t>
+  </si>
+  <si>
+    <t>图阁吧</t>
+  </si>
+  <si>
+    <t>https://sxchinesegirlz.xyz</t>
+  </si>
+  <si>
+    <t>中国美女</t>
+  </si>
+  <si>
+    <t>https://taotuhome.com</t>
+  </si>
+  <si>
+    <t>套图之家</t>
+  </si>
+  <si>
+    <t>http://www.aixiezhen.org</t>
+  </si>
+  <si>
+    <t>爱写真</t>
+  </si>
+  <si>
+    <t>http://www.pitiaok8.com</t>
+  </si>
+  <si>
+    <t>皮条客福利</t>
+  </si>
+  <si>
+    <t>http://www.gg99rt.pro</t>
+  </si>
+  <si>
+    <t>gogo人体Pro</t>
+  </si>
+  <si>
+    <t>wloob</t>
+  </si>
+  <si>
+    <t>https://www.v2ph.com/</t>
+  </si>
+  <si>
+    <t>微图坊</t>
+  </si>
+  <si>
+    <t>https://zhuaicun.com/</t>
+  </si>
+  <si>
+    <t>逐爱村</t>
+  </si>
+  <si>
+    <t>https://m.msgao.com/</t>
+  </si>
+  <si>
+    <t>正经图库</t>
+  </si>
+  <si>
+    <t>http://www.mmkx8.com</t>
+  </si>
+  <si>
+    <t>http://tuku.piaoliang.com</t>
+  </si>
+  <si>
+    <t>漂亮头条</t>
+  </si>
+  <si>
+    <t>https://www.1000tuku.com</t>
+  </si>
+  <si>
+    <t>1000图库</t>
+  </si>
+  <si>
+    <t>http://www.tutu9.com/</t>
+  </si>
+  <si>
+    <t>TUTU9</t>
+  </si>
+  <si>
+    <t>https://di81.com/</t>
+  </si>
+  <si>
+    <t>第81美女</t>
+  </si>
+  <si>
+    <t>https://smtmm.win/</t>
+  </si>
+  <si>
+    <t>水蜜桃妹妹</t>
+  </si>
+  <si>
+    <t>http://www.mntuxiu.com</t>
+  </si>
+  <si>
+    <t>美女图秀</t>
+  </si>
+  <si>
+    <t>https://www.zhainanlianmeng.com/baoku/page/2/</t>
+  </si>
+  <si>
+    <t>宅男基地</t>
+  </si>
+  <si>
+    <t>https://www.emshine.com</t>
+  </si>
+  <si>
+    <t>宅男福利社</t>
+  </si>
+  <si>
+    <t>http://www.h666.net</t>
+  </si>
+  <si>
+    <t>刷妹子</t>
+  </si>
+  <si>
+    <t>https://www.xsnvshen.com</t>
+  </si>
+  <si>
+    <t>秀色女神</t>
+  </si>
+  <si>
+    <t>https://www.ku137.net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回复12获取解压密码mY2rIjcO0SHA128a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复2获取解压密码6B4jzulTGhw0UYrr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复3获取解压密码YmYdqnod1lNM4E90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复4获取解压密码fCduSQdW4az8ZPfj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复5获取解压密码9jDIz0V6KckRBYgv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复6获取解压密码9b2IExfQyKFFEbtZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复7获取解压密码BnTwjMks1Q2IsHSG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复9获取解压密码3P84QeQyn6eKaP9Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ueWr1bnwBr281KlF</t>
-  </si>
-  <si>
-    <t>IW5PyuWWRj4VDz17</t>
-  </si>
-  <si>
-    <t>bo8zgC4nLjIAgYZK</t>
-  </si>
-  <si>
-    <t>O1yk0ZAgcGfdMlOX</t>
-  </si>
-  <si>
-    <t>福利姬过期米线线喵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1Xn5EfqELoCmbeL0A6iXGnQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.coms/1bikvRYhbj7ONTxsw67MnMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://pan.baidu.com/s/1Q-gU-pGbCxKYVMc85t0ceA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬桜井寧寧</t>
+    <t>https://m.meitulu.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +1808,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +1838,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -880,16 +1864,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -1200,896 +2187,896 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>223</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="D54" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="D55" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="D57" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="D58" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="D61" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="D64" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,18 +3084,1395 @@
         <v>260</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D65" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>316</v>
+      </c>
+      <c r="B29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>322</v>
+      </c>
+      <c r="B32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>324</v>
+      </c>
+      <c r="B33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>330</v>
+      </c>
+      <c r="B36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>336</v>
+      </c>
+      <c r="B39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>338</v>
+      </c>
+      <c r="B40" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>340</v>
+      </c>
+      <c r="B41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>342</v>
+      </c>
+      <c r="B42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>346</v>
+      </c>
+      <c r="B44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>348</v>
+      </c>
+      <c r="B45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>350</v>
+      </c>
+      <c r="B46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>354</v>
+      </c>
+      <c r="B48" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>357</v>
+      </c>
+      <c r="B50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>359</v>
+      </c>
+      <c r="B51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>363</v>
+      </c>
+      <c r="B53" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>365</v>
+      </c>
+      <c r="B54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>367</v>
+      </c>
+      <c r="B55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>369</v>
+      </c>
+      <c r="B56" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>371</v>
+      </c>
+      <c r="B57" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>373</v>
+      </c>
+      <c r="B58" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>375</v>
+      </c>
+      <c r="B59" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>377</v>
+      </c>
+      <c r="B60" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>379</v>
+      </c>
+      <c r="B61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>381</v>
+      </c>
+      <c r="B62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>383</v>
+      </c>
+      <c r="B63" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>385</v>
+      </c>
+      <c r="B64" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>387</v>
+      </c>
+      <c r="B65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>389</v>
+      </c>
+      <c r="B66" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>391</v>
+      </c>
+      <c r="B67" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>393</v>
+      </c>
+      <c r="B68" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>397</v>
+      </c>
+      <c r="B70" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>399</v>
+      </c>
+      <c r="B71" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>401</v>
+      </c>
+      <c r="B72" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>403</v>
+      </c>
+      <c r="B73" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>405</v>
+      </c>
+      <c r="B74" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>407</v>
+      </c>
+      <c r="B75" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>409</v>
+      </c>
+      <c r="B76" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>411</v>
+      </c>
+      <c r="B77" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>413</v>
+      </c>
+      <c r="B78" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>415</v>
+      </c>
+      <c r="B79" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>417</v>
+      </c>
+      <c r="B80" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>419</v>
+      </c>
+      <c r="B81" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>421</v>
+      </c>
+      <c r="B82" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>423</v>
+      </c>
+      <c r="B83" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>425</v>
+      </c>
+      <c r="B84" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>427</v>
+      </c>
+      <c r="B85" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>429</v>
+      </c>
+      <c r="B86" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>431</v>
+      </c>
+      <c r="B87" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>433</v>
+      </c>
+      <c r="B88" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>435</v>
+      </c>
+      <c r="B89" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>437</v>
+      </c>
+      <c r="B90" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>439</v>
+      </c>
+      <c r="B91" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>441</v>
+      </c>
+      <c r="B92" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>443</v>
+      </c>
+      <c r="B93" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>445</v>
+      </c>
+      <c r="B94" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>447</v>
+      </c>
+      <c r="B95" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>449</v>
+      </c>
+      <c r="B96" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>451</v>
+      </c>
+      <c r="B97" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>453</v>
+      </c>
+      <c r="B98" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>455</v>
+      </c>
+      <c r="B99" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>457</v>
+      </c>
+      <c r="B100" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>459</v>
+      </c>
+      <c r="B101" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>461</v>
+      </c>
+      <c r="B102" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>463</v>
+      </c>
+      <c r="B103" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>465</v>
+      </c>
+      <c r="B104" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>467</v>
+      </c>
+      <c r="B105" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>469</v>
+      </c>
+      <c r="B106" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>471</v>
+      </c>
+      <c r="B107" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>473</v>
+      </c>
+      <c r="B108" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>475</v>
+      </c>
+      <c r="B109" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>477</v>
+      </c>
+      <c r="B110" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>479</v>
+      </c>
+      <c r="B111" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>481</v>
+      </c>
+      <c r="B112" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>483</v>
+      </c>
+      <c r="B113" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>377</v>
+      </c>
+      <c r="B114" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>431</v>
+      </c>
+      <c r="B115" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>485</v>
+      </c>
+      <c r="B116" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>487</v>
+      </c>
+      <c r="B117" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>489</v>
+      </c>
+      <c r="B118" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>491</v>
+      </c>
+      <c r="B119" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>493</v>
+      </c>
+      <c r="B120" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>495</v>
+      </c>
+      <c r="B121" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>497</v>
+      </c>
+      <c r="B122" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>499</v>
+      </c>
+      <c r="B123" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>501</v>
+      </c>
+      <c r="B124" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>503</v>
+      </c>
+      <c r="B125" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>505</v>
+      </c>
+      <c r="B126" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>507</v>
+      </c>
+      <c r="B127" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>509</v>
+      </c>
+      <c r="B128" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>511</v>
+      </c>
+      <c r="B129" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>513</v>
+      </c>
+      <c r="B130" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>515</v>
+      </c>
+      <c r="B131" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>517</v>
+      </c>
+      <c r="B132" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>519</v>
+      </c>
+      <c r="B133" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>521</v>
+      </c>
+      <c r="B134" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>523</v>
+      </c>
+      <c r="B135" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>525</v>
+      </c>
+      <c r="B136" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>527</v>
+      </c>
+      <c r="B137" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>529</v>
+      </c>
+      <c r="B138" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>531</v>
+      </c>
+      <c r="B139" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>533</v>
+      </c>
+      <c r="B140" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>535</v>
+      </c>
+      <c r="B141" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>537</v>
+      </c>
+      <c r="B142" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>539</v>
+      </c>
+      <c r="B143" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>541</v>
+      </c>
+      <c r="B144" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>543</v>
+      </c>
+      <c r="B145" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>545</v>
+      </c>
+      <c r="B146" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>547</v>
+      </c>
+      <c r="B147" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>549</v>
+      </c>
+      <c r="B148" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>551</v>
+      </c>
+      <c r="B149" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>553</v>
+      </c>
+      <c r="B150" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>555</v>
+      </c>
+      <c r="B151" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>557</v>
+      </c>
+      <c r="B152" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>559</v>
+      </c>
+      <c r="B153" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>561</v>
+      </c>
+      <c r="B154" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>437</v>
+      </c>
+      <c r="B155" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>564</v>
+      </c>
+      <c r="B156" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>566</v>
+      </c>
+      <c r="B157" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>568</v>
+      </c>
+      <c r="B158" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>570</v>
+      </c>
+      <c r="B159" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>571</v>
+      </c>
+      <c r="B160" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>573</v>
+      </c>
+      <c r="B161" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>575</v>
+      </c>
+      <c r="B162" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>577</v>
+      </c>
+      <c r="B163" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>579</v>
+      </c>
+      <c r="B164" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>581</v>
+      </c>
+      <c r="B165" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>583</v>
+      </c>
+      <c r="B166" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>585</v>
+      </c>
+      <c r="B167" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>587</v>
+      </c>
+      <c r="B168" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>589</v>
+      </c>
+      <c r="B169" t="s">
+        <v>590</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{426CD459-8B06-4E9F-A0A4-1AFF41605F8F}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{650F6271-53DC-49CB-9309-968AD6C222E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Normal/xyz.xlsx
+++ b/Normal/xyz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F57305C-9573-4AB3-B255-8897CE54E531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A2F4EC-0F38-4B77-86FB-ED0BBBC4F24A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="573">
   <si>
     <t>地址</t>
   </si>
@@ -824,983 +824,1075 @@
     <t>K哦弄套图</t>
   </si>
   <si>
+    <t>7160壁纸</t>
+  </si>
+  <si>
+    <t>win4000壁纸</t>
+  </si>
+  <si>
+    <t>mm131美女</t>
+  </si>
+  <si>
+    <t>MMOnly壁纸</t>
+  </si>
+  <si>
+    <t>绝对领域</t>
+  </si>
+  <si>
+    <t>宅男女神</t>
+  </si>
+  <si>
+    <t>妹子图</t>
+  </si>
+  <si>
+    <t>黑光图库</t>
+  </si>
+  <si>
+    <t>美图131</t>
+  </si>
+  <si>
+    <t>粉美人</t>
+  </si>
+  <si>
+    <t>美图吧</t>
+  </si>
+  <si>
+    <t>绝美网</t>
+  </si>
+  <si>
+    <t>爱美女</t>
+  </si>
+  <si>
+    <t>神马美女图</t>
+  </si>
+  <si>
+    <t>秀人俱乐部</t>
+  </si>
+  <si>
+    <t>亿图</t>
+  </si>
+  <si>
+    <t>Mei101</t>
+  </si>
+  <si>
+    <t>邪恶.gif</t>
+  </si>
+  <si>
+    <t>美图日</t>
+  </si>
+  <si>
+    <t>2717美女</t>
+  </si>
+  <si>
+    <t>gogo人体</t>
+  </si>
+  <si>
+    <t>MM范</t>
+  </si>
+  <si>
+    <t>多美图</t>
+  </si>
+  <si>
+    <t>MNTTZ</t>
+  </si>
+  <si>
+    <t>91国产精选</t>
+  </si>
+  <si>
+    <t>图意网</t>
+  </si>
+  <si>
+    <t>阿七美图馆</t>
+  </si>
+  <si>
+    <t>美眉吧</t>
+  </si>
+  <si>
+    <t>呜嘞哇啦</t>
+  </si>
+  <si>
+    <t>我爱看图</t>
+  </si>
+  <si>
+    <t>优优美女网</t>
+  </si>
+  <si>
+    <t>TaotuXP</t>
+  </si>
+  <si>
+    <t>iTuba</t>
+  </si>
+  <si>
+    <t>Kaka1234</t>
+  </si>
+  <si>
+    <t>美图录[机构]</t>
+  </si>
+  <si>
+    <t>girl-atlas</t>
+  </si>
+  <si>
+    <t>yun993</t>
+  </si>
+  <si>
+    <t>彼岸桌面</t>
+  </si>
+  <si>
+    <t>回车桌面</t>
+  </si>
+  <si>
+    <t>YW美女图</t>
+  </si>
+  <si>
+    <t>MN52</t>
+  </si>
+  <si>
+    <t>tz365</t>
+  </si>
+  <si>
+    <t>GTMM</t>
+  </si>
+  <si>
+    <t>19M5</t>
+  </si>
+  <si>
+    <t>192TD</t>
+  </si>
+  <si>
+    <t>非主流</t>
+  </si>
+  <si>
+    <t>酷酷人体</t>
+  </si>
+  <si>
+    <t>西西人体</t>
+  </si>
+  <si>
+    <t>ojbk人体</t>
+  </si>
+  <si>
+    <t>靓丽图库</t>
+  </si>
+  <si>
+    <t>依娃人体</t>
+  </si>
+  <si>
+    <t>写生人体</t>
+  </si>
+  <si>
+    <t>009人体</t>
+  </si>
+  <si>
+    <t>优优人体</t>
+  </si>
+  <si>
+    <t>扭腰人体</t>
+  </si>
+  <si>
+    <t>keke234</t>
+  </si>
+  <si>
+    <t>aixiues</t>
+  </si>
+  <si>
+    <t>24COS</t>
+  </si>
+  <si>
+    <t>24MN</t>
+  </si>
+  <si>
+    <t>sasaone</t>
+  </si>
+  <si>
+    <t>女模套图</t>
+  </si>
+  <si>
+    <t>萌妹子</t>
+  </si>
+  <si>
+    <t>TPXL</t>
+  </si>
+  <si>
+    <t>爱淘美图</t>
+  </si>
+  <si>
+    <t>尤物馆</t>
+  </si>
+  <si>
+    <t>MM131VIP</t>
+  </si>
+  <si>
+    <t>美女黑丝</t>
+  </si>
+  <si>
+    <t>犀牛网</t>
+  </si>
+  <si>
+    <t>美丽新人类</t>
+  </si>
+  <si>
+    <t>妹妹吧</t>
+  </si>
+  <si>
+    <t>59PIC</t>
+  </si>
+  <si>
+    <t>ZDQX</t>
+  </si>
+  <si>
+    <t>千千花</t>
+  </si>
+  <si>
+    <t>漂亮美眉</t>
+  </si>
+  <si>
+    <t>花美人</t>
+  </si>
+  <si>
+    <t>萌萌妹纸</t>
+  </si>
+  <si>
+    <t>辣女神</t>
+  </si>
+  <si>
+    <t>99MM</t>
+  </si>
+  <si>
+    <t>搜优图</t>
+  </si>
+  <si>
+    <t>gogo51</t>
+  </si>
+  <si>
+    <t>爱骚</t>
+  </si>
+  <si>
+    <t>宅男福利</t>
+  </si>
+  <si>
+    <t>HotGirl</t>
+  </si>
+  <si>
+    <t>169TP</t>
+  </si>
+  <si>
+    <t>美女图</t>
+  </si>
+  <si>
+    <t>美眉开心吧</t>
+  </si>
+  <si>
+    <t>春光图片</t>
+  </si>
+  <si>
+    <t>美女世界</t>
+  </si>
+  <si>
+    <t>QXMHW</t>
+  </si>
+  <si>
+    <t>绝对服从</t>
+  </si>
+  <si>
+    <t>ACG盒子</t>
+  </si>
+  <si>
+    <t>私拍馆</t>
+  </si>
+  <si>
+    <t>网红屋</t>
+  </si>
+  <si>
+    <t>爱MM图</t>
+  </si>
+  <si>
+    <t>3美女</t>
+  </si>
+  <si>
+    <t>3764</t>
+  </si>
+  <si>
+    <t>MM13</t>
+  </si>
+  <si>
+    <t>36壁纸</t>
+  </si>
+  <si>
+    <t>图片之家</t>
+  </si>
+  <si>
+    <t>OBOMM</t>
+  </si>
+  <si>
+    <t>TT98</t>
+  </si>
+  <si>
+    <t>好省</t>
+  </si>
+  <si>
+    <t>百妹</t>
+  </si>
+  <si>
+    <t>极品美媚馆</t>
+  </si>
+  <si>
+    <t>人体美媚馆</t>
+  </si>
+  <si>
+    <t>80族</t>
+  </si>
+  <si>
+    <t>Ku66</t>
+  </si>
+  <si>
+    <t>girlsofdesire</t>
+  </si>
+  <si>
+    <t>7Y7Y</t>
+  </si>
+  <si>
+    <t>宅男猫</t>
+  </si>
+  <si>
+    <t>美足</t>
+  </si>
+  <si>
+    <t>hottystop</t>
+  </si>
+  <si>
+    <t>校花网</t>
+  </si>
+  <si>
+    <t>推图网</t>
+  </si>
+  <si>
+    <t>推图</t>
+  </si>
+  <si>
+    <t>HN7B</t>
+  </si>
+  <si>
+    <t>wpblog</t>
+  </si>
+  <si>
+    <t>PXY99</t>
+  </si>
+  <si>
+    <t>NSFWPICX</t>
+  </si>
+  <si>
+    <t>杂志桃图</t>
+  </si>
+  <si>
+    <t>Cosplay8</t>
+  </si>
+  <si>
+    <t>绅士图书馆</t>
+  </si>
+  <si>
+    <t>微时光图艺</t>
+  </si>
+  <si>
+    <t>柠檬皮</t>
+  </si>
+  <si>
+    <t>常识坊</t>
+  </si>
+  <si>
+    <t>AKB48</t>
+  </si>
+  <si>
+    <t>番号列表</t>
+  </si>
+  <si>
+    <t>cosplaymore</t>
+  </si>
+  <si>
+    <t>男人世界</t>
+  </si>
+  <si>
+    <t>次元堂</t>
+  </si>
+  <si>
+    <t>写真套图</t>
+  </si>
+  <si>
+    <t>图图岛</t>
+  </si>
+  <si>
+    <t>图阁吧</t>
+  </si>
+  <si>
+    <t>中国美女</t>
+  </si>
+  <si>
+    <t>套图之家</t>
+  </si>
+  <si>
+    <t>爱写真</t>
+  </si>
+  <si>
+    <t>皮条客福利</t>
+  </si>
+  <si>
+    <t>gogo人体Pro</t>
+  </si>
+  <si>
+    <t>wloob</t>
+  </si>
+  <si>
+    <t>微图坊</t>
+  </si>
+  <si>
+    <t>逐爱村</t>
+  </si>
+  <si>
+    <t>正经图库</t>
+  </si>
+  <si>
+    <t>漂亮头条</t>
+  </si>
+  <si>
+    <t>1000图库</t>
+  </si>
+  <si>
+    <t>TUTU9</t>
+  </si>
+  <si>
+    <t>第81美女</t>
+  </si>
+  <si>
+    <t>水蜜桃妹妹</t>
+  </si>
+  <si>
+    <t>美女图秀</t>
+  </si>
+  <si>
+    <t>宅男基地</t>
+  </si>
+  <si>
+    <t>宅男福利社</t>
+  </si>
+  <si>
+    <t>刷妹子</t>
+  </si>
+  <si>
+    <t>秀色女神</t>
+  </si>
+  <si>
+    <t>https://www.ku137.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://m.meitulu.com/</t>
-  </si>
-  <si>
-    <t>美图录[地区]</t>
-  </si>
-  <si>
-    <t>美图录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.7160.com</t>
-  </si>
-  <si>
-    <t>7160壁纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.win4000.com</t>
-  </si>
-  <si>
-    <t>win4000壁纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.mm131.net</t>
-  </si>
-  <si>
-    <t>mm131美女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://m.mmonly.cc</t>
-  </si>
-  <si>
-    <t>MMOnly壁纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.jder.net</t>
-  </si>
-  <si>
-    <t>绝对领域</t>
-  </si>
-  <si>
-    <t>http://www.airenzhe.com</t>
-  </si>
-  <si>
-    <t>爱人者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hottystop.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mzsock.com/mv/page/4/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.zhainanmao.la</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.7y7y.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.girlsofdesire.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ku66.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.emshine.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xsnvshen.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.h666.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhainanlianmeng.com/baoku/page/2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mntuxiu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://smtmm.win/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://di81.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tutu9.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.1000tuku.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tuku.piaoliang.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mmkx8.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.msgao.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuaicun.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.v2ph.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.wloob.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gg99rt.pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.pitiaok8.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.aixiezhen.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.nvshens.net</t>
-  </si>
-  <si>
-    <t>宅男女神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.mzitu.com</t>
-  </si>
-  <si>
-    <t>妹子图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://tu.heiguang.com</t>
-  </si>
-  <si>
-    <t>黑光图库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.meitu131.com</t>
-  </si>
-  <si>
-    <t>美图131</t>
-  </si>
-  <si>
-    <t>美图131(女神)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.fenmr.com</t>
-  </si>
-  <si>
-    <t>粉美人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.meituba.com</t>
-  </si>
-  <si>
-    <t>美图吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.juemei.com</t>
-  </si>
-  <si>
-    <t>绝美网</t>
-  </si>
-  <si>
-    <t>https://www.tupianzj.com</t>
-  </si>
-  <si>
-    <t>美女之家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.2meinv.com</t>
-  </si>
-  <si>
-    <t>爱美女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.sm265.net</t>
-  </si>
-  <si>
-    <t>神马美女图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://xiuren.club/</t>
-  </si>
-  <si>
-    <t>秀人俱乐部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.yeitu.com</t>
-  </si>
-  <si>
-    <t>亿图</t>
-  </si>
-  <si>
-    <t>https://www.yeitu.com/</t>
-  </si>
-  <si>
-    <t>亿图百科</t>
-  </si>
-  <si>
-    <t>亿图女神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.mei101.com</t>
-  </si>
-  <si>
-    <t>Mei101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.snyys.com/wenzhang</t>
-  </si>
-  <si>
-    <t>邪恶.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.meituri.com</t>
-  </si>
-  <si>
-    <t>美图日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.2717.com</t>
-  </si>
-  <si>
-    <t>2717美女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.gogortys.net</t>
-  </si>
-  <si>
-    <t>gogo人体</t>
-  </si>
-  <si>
-    <t>http://www.meizian.com</t>
-  </si>
-  <si>
-    <t>妹子庵</t>
-  </si>
-  <si>
-    <t>http://www.mmkk.me/</t>
-  </si>
-  <si>
-    <t>MMKK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.95mm.net</t>
-  </si>
-  <si>
-    <t>MM范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.duomeitu.com</t>
-  </si>
-  <si>
-    <t>多美图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.mnttz.com</t>
-  </si>
-  <si>
-    <t>MNTTZ</t>
-  </si>
-  <si>
-    <t>https://htu4.com</t>
-  </si>
-  <si>
-    <t>黄桃图库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://l91s.com</t>
-  </si>
-  <si>
-    <t>91国产精选</t>
-  </si>
-  <si>
-    <t>http://www.girlsky.cn</t>
-  </si>
-  <si>
-    <t>妹子天空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.tuyim.vip</t>
-  </si>
-  <si>
-    <t>图意网</t>
-  </si>
-  <si>
-    <t>https://a7a7.net</t>
-  </si>
-  <si>
-    <t>阿七美图馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.mm8mm88.com</t>
-  </si>
-  <si>
-    <t>美眉吧</t>
-  </si>
-  <si>
-    <t>https://www.xgmn.org</t>
-  </si>
-  <si>
-    <t>性感美女网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://taotuhome.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sxchinesegirlz.xyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tugeba.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tutudao.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xiezhentaotu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acgtang.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.manrenshijie.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cosplaymore.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.meikebi.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.snh0048.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.changshifang.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lmmpic.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.wsgxo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nicocos.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cosplay8.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://zazhitaotu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nsfwpicx.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pxy99.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://duoer.wpblog.jp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hn7b.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.wulewala.com</t>
-  </si>
-  <si>
-    <t>呜嘞哇啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.5ikantu.org</t>
-  </si>
-  <si>
-    <t>我爱看图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tuiimg.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tuiimg.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.duodia.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.80zu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.rtmma.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jpmmg.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baimei.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://zy.shopina.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tt98.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://obomm.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.qianqianhua.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.feizl.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tupianzj.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.3gbizhi.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mm13.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.3764.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.3meinv.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lovemmtu.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.whspin.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sipaiwu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tu.acgbox.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jueduifucong.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.qxmhw.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meinvsj.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.m.cgtpw.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.mmkx8.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.uu131.net</t>
-  </si>
-  <si>
-    <t>优优美女网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.taotuxp.com</t>
-  </si>
-  <si>
-    <t>TaotuXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.ituba.cc</t>
-  </si>
-  <si>
-    <t>iTuba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.kaka1234.com</t>
-  </si>
-  <si>
-    <t>Kaka1234</t>
-  </si>
-  <si>
-    <t>美图录[机构]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://meinvtu.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.169tp.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hotgirl.biz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://zhainanfuliba.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.f4mm.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.gogo51.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.souutu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mn99mm.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lanvshen.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mrhuace.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.plmm.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.zdqx.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://59pic.92demo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mm8mm8.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mlxrl.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.xintp.com/meinv/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.meinvheisi.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mm131.vip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.uwuguan.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.itmtu.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tpxl.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://moemzi.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nmtaotu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sasaone.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.24mntp.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.24cos.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://meinv.aixiues.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.keke234.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.611renti.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://uuuurt.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.009renti.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.xieshengrt.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.graphiscnn.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hexuexiao.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ojbk.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccrtcc.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cocorenti.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.192td.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.19m5.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.gtmm.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tz365.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wap.mn52.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ywmeinv.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.enterdesk.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.netbian.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yun993.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://girl-atlas.net</t>
-  </si>
-  <si>
-    <t>girl-atlas</t>
-  </si>
-  <si>
-    <t>https://www.yun993.net</t>
-  </si>
-  <si>
-    <t>yun993</t>
-  </si>
-  <si>
-    <t>http://www.netbian.com</t>
-  </si>
-  <si>
-    <t>彼岸桌面</t>
-  </si>
-  <si>
-    <t>https://www.enterdesk.com</t>
-  </si>
-  <si>
-    <t>回车桌面</t>
-  </si>
-  <si>
-    <t>http://www.ywmeinv.com</t>
-  </si>
-  <si>
-    <t>YW美女图</t>
-  </si>
-  <si>
-    <t>http://wap.mn52.com</t>
-  </si>
-  <si>
-    <t>MN52</t>
-  </si>
-  <si>
-    <t>https://www.tz365.cn</t>
-  </si>
-  <si>
-    <t>tz365</t>
-  </si>
-  <si>
-    <t>https://m.gtmm.net</t>
-  </si>
-  <si>
-    <t>GTMM</t>
-  </si>
-  <si>
-    <t>http://www.19m5.com</t>
-  </si>
-  <si>
-    <t>19M5</t>
-  </si>
-  <si>
-    <t>https://www.192td.com</t>
-  </si>
-  <si>
-    <t>192TD</t>
-  </si>
-  <si>
-    <t>https://www.feizl.com</t>
-  </si>
-  <si>
-    <t>非主流</t>
-  </si>
-  <si>
-    <t>http://www.cocorenti.com</t>
-  </si>
-  <si>
-    <t>酷酷人体</t>
-  </si>
-  <si>
-    <t>http://www.ccrtcc.cc</t>
-  </si>
-  <si>
-    <t>西西人体</t>
-  </si>
-  <si>
-    <t>http://www.ojbk.cc</t>
-  </si>
-  <si>
-    <t>ojbk人体</t>
-  </si>
-  <si>
-    <t>https://www.hexuexiao.cn</t>
-  </si>
-  <si>
-    <t>靓丽图库</t>
-  </si>
-  <si>
-    <t>http://www.graphiscnn.com</t>
-  </si>
-  <si>
-    <t>依娃人体</t>
-  </si>
-  <si>
-    <t>http://www.xieshengrt.com</t>
-  </si>
-  <si>
-    <t>写生人体</t>
-  </si>
-  <si>
-    <t>http://www.009renti.com</t>
-  </si>
-  <si>
-    <t>009人体</t>
-  </si>
-  <si>
-    <t>http://uuuurt.com</t>
-  </si>
-  <si>
-    <t>优优人体</t>
-  </si>
-  <si>
-    <t>http://www.611renti.com</t>
-  </si>
-  <si>
-    <t>扭腰人体</t>
-  </si>
-  <si>
-    <t>https://www.keke234.com</t>
-  </si>
-  <si>
-    <t>keke234</t>
-  </si>
-  <si>
-    <t>http://meinv.aixiues.com</t>
-  </si>
-  <si>
-    <t>aixiues</t>
-  </si>
-  <si>
-    <t>https://www.24cos.com</t>
-  </si>
-  <si>
-    <t>24COS</t>
-  </si>
-  <si>
-    <t>https://www.24mntp.com</t>
-  </si>
-  <si>
-    <t>24MN</t>
-  </si>
-  <si>
-    <t>http://www.sasaone.com</t>
-  </si>
-  <si>
-    <t>sasaone</t>
-  </si>
-  <si>
-    <t>http://www.nmtaotu.com</t>
-  </si>
-  <si>
-    <t>女模套图</t>
-  </si>
-  <si>
-    <t>https://moemzi.com/</t>
-  </si>
-  <si>
-    <t>萌妹子</t>
-  </si>
-  <si>
-    <t>http://www.tpxl.com</t>
-  </si>
-  <si>
-    <t>TPXL</t>
-  </si>
-  <si>
-    <t>http://www.itmtu.net</t>
-  </si>
-  <si>
-    <t>爱淘美图</t>
-  </si>
-  <si>
-    <t>http://www.uwuguan.com</t>
-  </si>
-  <si>
-    <t>尤物馆</t>
-  </si>
-  <si>
-    <t>http://www.mm131.vip</t>
-  </si>
-  <si>
-    <t>MM131VIP</t>
-  </si>
-  <si>
-    <t>https://www.meinvheisi.cn</t>
-  </si>
-  <si>
-    <t>美女黑丝</t>
-  </si>
-  <si>
-    <t>http://www.xintp.com/meinv/</t>
-  </si>
-  <si>
-    <t>犀牛网</t>
-  </si>
-  <si>
-    <t>https://www.mlxrl.com</t>
-  </si>
-  <si>
-    <t>美丽新人类</t>
-  </si>
-  <si>
-    <t>http://www.mm8mm8.com</t>
-  </si>
-  <si>
-    <t>妹妹吧</t>
-  </si>
-  <si>
-    <t>http://59pic.92demo.com</t>
-  </si>
-  <si>
-    <t>59PIC</t>
-  </si>
-  <si>
-    <t>http://www.zdqx.com</t>
-  </si>
-  <si>
-    <t>ZDQX</t>
-  </si>
-  <si>
-    <t>https://www.qianqianhua.com</t>
-  </si>
-  <si>
-    <t>千千花</t>
-  </si>
-  <si>
-    <t>https://www.plmm.com.cn</t>
-  </si>
-  <si>
-    <t>漂亮美眉</t>
-  </si>
-  <si>
-    <t>http://www.mrhuace.com</t>
-  </si>
-  <si>
-    <t>花美人</t>
-  </si>
-  <si>
-    <t>http://www.wloob.com</t>
-  </si>
-  <si>
-    <t>萌萌妹纸</t>
-  </si>
-  <si>
-    <t>https://www.lanvshen.com</t>
-  </si>
-  <si>
-    <t>辣女神</t>
-  </si>
-  <si>
-    <t>http://mn99mm.com</t>
-  </si>
-  <si>
-    <t>99MM</t>
-  </si>
-  <si>
-    <t>http://www.souutu.com</t>
-  </si>
-  <si>
-    <t>搜优图</t>
-  </si>
-  <si>
-    <t>https://m.gogo51.com/</t>
-  </si>
-  <si>
-    <t>gogo51</t>
-  </si>
-  <si>
-    <t>https://www.f4mm.com</t>
-  </si>
-  <si>
-    <t>爱骚</t>
-  </si>
-  <si>
-    <t>http://zhainanfuliba.cc</t>
-  </si>
-  <si>
-    <t>宅男福利</t>
-  </si>
-  <si>
-    <t>https://hotgirl.biz</t>
-  </si>
-  <si>
-    <t>HotGirl</t>
-  </si>
-  <si>
-    <t>https://www.169tp.com</t>
-  </si>
-  <si>
-    <t>169TP</t>
-  </si>
-  <si>
-    <t>http://meinvtu.org</t>
-  </si>
-  <si>
-    <t>美女图</t>
-  </si>
-  <si>
-    <t>http://m.mmkx8.com</t>
-  </si>
-  <si>
-    <t>美眉开心吧</t>
-  </si>
-  <si>
-    <t>http://m.m.cgtpw.com</t>
-  </si>
-  <si>
-    <t>春光图片</t>
-  </si>
-  <si>
-    <t>http://m.meinvsj.com</t>
-  </si>
-  <si>
-    <t>美女世界</t>
-  </si>
-  <si>
-    <t>https://www.qxmhw.com</t>
-  </si>
-  <si>
-    <t>QXMHW</t>
-  </si>
-  <si>
-    <t>http://www.jueduifucong.com</t>
-  </si>
-  <si>
-    <t>绝对服从</t>
-  </si>
-  <si>
-    <t>https://tu.acgbox.org</t>
-  </si>
-  <si>
-    <t>ACG盒子</t>
-  </si>
-  <si>
-    <t>http://www.sipaiwu.com</t>
-  </si>
-  <si>
-    <t>私拍馆</t>
-  </si>
-  <si>
-    <t>http://www.whspin.com</t>
-  </si>
-  <si>
-    <t>网红屋</t>
-  </si>
-  <si>
-    <t>https://www.lovemmtu.net</t>
-  </si>
-  <si>
-    <t>爱MM图</t>
-  </si>
-  <si>
-    <t>https://www.3meinv.com</t>
-  </si>
-  <si>
-    <t>3美女</t>
-  </si>
-  <si>
-    <t>http://www.3764.net</t>
-  </si>
-  <si>
-    <t>3764</t>
-  </si>
-  <si>
-    <t>https://www.mm13.cc</t>
-  </si>
-  <si>
-    <t>MM13</t>
-  </si>
-  <si>
-    <t>https://m.3gbizhi.com</t>
-  </si>
-  <si>
-    <t>36壁纸</t>
-  </si>
-  <si>
-    <t>https://m.tupianzj.com</t>
-  </si>
-  <si>
-    <t>图片之家</t>
-  </si>
-  <si>
-    <t>https://obomm.com</t>
-  </si>
-  <si>
-    <t>OBOMM</t>
-  </si>
-  <si>
-    <t>https://www.tt98.com</t>
-  </si>
-  <si>
-    <t>TT98</t>
-  </si>
-  <si>
-    <t>http://zy.shopina.cn</t>
-  </si>
-  <si>
-    <t>好省</t>
-  </si>
-  <si>
-    <t>http://www.baimei.org</t>
-  </si>
-  <si>
-    <t>百妹</t>
-  </si>
-  <si>
-    <t>https://www.jpmmg.com</t>
-  </si>
-  <si>
-    <t>极品美媚馆</t>
-  </si>
-  <si>
-    <t>https://www.rtmma.com</t>
-  </si>
-  <si>
-    <t>人体美媚馆</t>
-  </si>
-  <si>
-    <t>https://www.80zu.com</t>
-  </si>
-  <si>
-    <t>80族</t>
-  </si>
-  <si>
-    <t>https://www.ku66.net</t>
-  </si>
-  <si>
-    <t>Ku66</t>
-  </si>
-  <si>
-    <t>https://www.girlsofdesire.org</t>
-  </si>
-  <si>
-    <t>girlsofdesire</t>
-  </si>
-  <si>
-    <t>https://www.7y7y.net</t>
-  </si>
-  <si>
-    <t>7Y7Y</t>
-  </si>
-  <si>
-    <t>http://www.zhainanmao.la</t>
-  </si>
-  <si>
-    <t>宅男猫</t>
-  </si>
-  <si>
-    <t>http://mzsock.com/mv/page/4/</t>
-  </si>
-  <si>
-    <t>美足</t>
-  </si>
-  <si>
-    <t>https://www.hottystop.com</t>
-  </si>
-  <si>
-    <t>hottystop</t>
-  </si>
-  <si>
-    <t>https://m.duodia.com</t>
-  </si>
-  <si>
-    <t>校花网</t>
-  </si>
-  <si>
-    <t>https://m.tuiimg.com</t>
-  </si>
-  <si>
-    <t>推图网</t>
-  </si>
-  <si>
-    <t>https://www.tuiimg.com</t>
-  </si>
-  <si>
-    <t>推图</t>
-  </si>
-  <si>
-    <t>https://www.hn7b.com</t>
-  </si>
-  <si>
-    <t>HN7B</t>
-  </si>
-  <si>
-    <t>https://duoer.wpblog.jp</t>
-  </si>
-  <si>
-    <t>wpblog</t>
-  </si>
-  <si>
-    <t>http://pxy99.com</t>
-  </si>
-  <si>
-    <t>PXY99</t>
-  </si>
-  <si>
-    <t>http://nsfwpicx.com/</t>
-  </si>
-  <si>
-    <t>NSFWPICX</t>
-  </si>
-  <si>
-    <t>http://zazhitaotu.com</t>
-  </si>
-  <si>
-    <t>杂志桃图</t>
-  </si>
-  <si>
-    <t>http://www.cosplay8.com</t>
-  </si>
-  <si>
-    <t>Cosplay8</t>
-  </si>
-  <si>
-    <t>http://nicocos.net</t>
-  </si>
-  <si>
-    <t>绅士图书馆</t>
-  </si>
-  <si>
-    <t>https://www.wsgxo.com</t>
-  </si>
-  <si>
-    <t>微时光图艺</t>
-  </si>
-  <si>
-    <t>https://www.lmmpic.com/</t>
-  </si>
-  <si>
-    <t>柠檬皮</t>
-  </si>
-  <si>
-    <t>https://www.changshifang.com</t>
-  </si>
-  <si>
-    <t>常识坊</t>
-  </si>
-  <si>
-    <t>http://www.snh0048.com</t>
-  </si>
-  <si>
-    <t>AKB48</t>
-  </si>
-  <si>
-    <t>https://www.meikebi.com</t>
-  </si>
-  <si>
-    <t>番号列表</t>
-  </si>
-  <si>
-    <t>https://www.cosplaymore.com</t>
-  </si>
-  <si>
-    <t>cosplaymore</t>
-  </si>
-  <si>
-    <t>https://www.manrenshijie.com</t>
-  </si>
-  <si>
-    <t>男人世界</t>
-  </si>
-  <si>
-    <t>https://www.acgtang.com</t>
-  </si>
-  <si>
-    <t>次元堂</t>
-  </si>
-  <si>
-    <t>https://www.xiezhentaotu.com</t>
-  </si>
-  <si>
-    <t>写真套图</t>
-  </si>
-  <si>
-    <t>https://www.tutudao.net</t>
-  </si>
-  <si>
-    <t>图图岛</t>
-  </si>
-  <si>
-    <t>http://www.tugeba.com</t>
-  </si>
-  <si>
-    <t>图阁吧</t>
-  </si>
-  <si>
-    <t>https://sxchinesegirlz.xyz</t>
-  </si>
-  <si>
-    <t>中国美女</t>
-  </si>
-  <si>
-    <t>https://taotuhome.com</t>
-  </si>
-  <si>
-    <t>套图之家</t>
-  </si>
-  <si>
-    <t>http://www.aixiezhen.org</t>
-  </si>
-  <si>
-    <t>爱写真</t>
-  </si>
-  <si>
-    <t>http://www.pitiaok8.com</t>
-  </si>
-  <si>
-    <t>皮条客福利</t>
-  </si>
-  <si>
-    <t>http://www.gg99rt.pro</t>
-  </si>
-  <si>
-    <t>gogo人体Pro</t>
-  </si>
-  <si>
-    <t>wloob</t>
-  </si>
-  <si>
-    <t>https://www.v2ph.com/</t>
-  </si>
-  <si>
-    <t>微图坊</t>
-  </si>
-  <si>
-    <t>https://zhuaicun.com/</t>
-  </si>
-  <si>
-    <t>逐爱村</t>
-  </si>
-  <si>
-    <t>https://m.msgao.com/</t>
-  </si>
-  <si>
-    <t>正经图库</t>
-  </si>
-  <si>
-    <t>http://www.mmkx8.com</t>
-  </si>
-  <si>
-    <t>http://tuku.piaoliang.com</t>
-  </si>
-  <si>
-    <t>漂亮头条</t>
-  </si>
-  <si>
-    <t>https://www.1000tuku.com</t>
-  </si>
-  <si>
-    <t>1000图库</t>
-  </si>
-  <si>
-    <t>http://www.tutu9.com/</t>
-  </si>
-  <si>
-    <t>TUTU9</t>
-  </si>
-  <si>
-    <t>https://di81.com/</t>
-  </si>
-  <si>
-    <t>第81美女</t>
-  </si>
-  <si>
-    <t>https://smtmm.win/</t>
-  </si>
-  <si>
-    <t>水蜜桃妹妹</t>
-  </si>
-  <si>
-    <t>http://www.mntuxiu.com</t>
-  </si>
-  <si>
-    <t>美女图秀</t>
-  </si>
-  <si>
-    <t>https://www.zhainanlianmeng.com/baoku/page/2/</t>
-  </si>
-  <si>
-    <t>宅男基地</t>
-  </si>
-  <si>
-    <t>https://www.emshine.com</t>
-  </si>
-  <si>
-    <t>宅男福利社</t>
-  </si>
-  <si>
-    <t>http://www.h666.net</t>
-  </si>
-  <si>
-    <t>刷妹子</t>
-  </si>
-  <si>
-    <t>https://www.xsnvshen.com</t>
-  </si>
-  <si>
-    <t>秀色女神</t>
-  </si>
-  <si>
-    <t>https://www.ku137.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.meitulu.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H工口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://a7a7.net/meitu/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1847,12 +1939,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1868,11 +1966,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3102,16 +3201,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.5546875" customWidth="1"/>
     <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3224,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>591</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
         <v>266</v>
@@ -3132,1347 +3232,1409 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>592</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" t="s">
         <v>270</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" t="s">
         <v>272</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B10" t="s">
         <v>274</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" t="s">
         <v>276</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B13" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B14" t="s">
         <v>278</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" t="s">
         <v>280</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B18" t="s">
         <v>282</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B20" t="s">
         <v>284</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B21" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22" t="s">
         <v>286</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B24" t="s">
         <v>288</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B25" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B26" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B27" t="s">
         <v>291</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C27" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B28" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B29" t="s">
         <v>293</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B30" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B31" t="s">
         <v>295</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B32" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B33" t="s">
         <v>297</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B34" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B35" t="s">
         <v>299</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B36" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B37" t="s">
         <v>301</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B38" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B39" t="s">
         <v>303</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B40" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B41" t="s">
         <v>305</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B42" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B43" t="s">
         <v>307</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B44" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>305</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B45" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B46" t="s">
         <v>310</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B48" t="s">
         <v>312</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B49" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B50" t="s">
         <v>314</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B51" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B52" t="s">
         <v>316</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B53" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B54" t="s">
         <v>318</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B55" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B56" t="s">
         <v>320</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B57" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B58" t="s">
         <v>322</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B59" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B60" t="s">
         <v>324</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B61" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B62" t="s">
         <v>326</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B63" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B64" t="s">
         <v>328</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B65" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B66" t="s">
         <v>330</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B67" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B68" t="s">
         <v>332</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B69" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B70" t="s">
         <v>334</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B71" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B72" t="s">
         <v>336</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B73" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B74" t="s">
         <v>338</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B75" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B76" t="s">
         <v>340</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B77" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B78" t="s">
         <v>342</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B79" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B80" t="s">
         <v>344</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B81" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B82" t="s">
         <v>346</v>
       </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B83" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B84" t="s">
         <v>348</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B85" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B86" t="s">
         <v>350</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B87" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B88" t="s">
         <v>352</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B89" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B90" t="s">
         <v>354</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B91" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>267</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B92" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B93" t="s">
         <v>357</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B94" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B95" t="s">
         <v>359</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B96" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B97" t="s">
         <v>361</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B98" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B99" t="s">
         <v>363</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B101" t="s">
         <v>365</v>
       </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B102" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B103" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B104" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B105" t="s">
         <v>367</v>
       </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B106" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B107" t="s">
         <v>369</v>
       </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B108" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B109" t="s">
         <v>371</v>
       </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B110" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B111" t="s">
         <v>373</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B112" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B113" t="s">
         <v>375</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B114" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B115" t="s">
         <v>377</v>
       </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B116" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B117" t="s">
         <v>379</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B118" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B119" t="s">
         <v>381</v>
       </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B120" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B121" t="s">
         <v>383</v>
       </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B122" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B123" t="s">
         <v>385</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B124" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B125" t="s">
         <v>387</v>
       </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B126" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B127" t="s">
         <v>389</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B128" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B129" t="s">
         <v>391</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B130" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B131" t="s">
         <v>393</v>
       </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B132" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B133" t="s">
         <v>395</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B134" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B135" t="s">
         <v>397</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B136" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B137" t="s">
         <v>399</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B138" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B139" t="s">
         <v>401</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B140" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B141" t="s">
         <v>403</v>
       </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B142" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B143" t="s">
         <v>405</v>
       </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B144" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B145" t="s">
         <v>407</v>
       </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B146" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B147" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B148" t="s">
         <v>409</v>
       </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B149" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B150" t="s">
         <v>411</v>
       </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B151" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B152" t="s">
         <v>413</v>
       </c>
-      <c r="B78" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B153" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B154" t="s">
         <v>415</v>
       </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B155" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B156" t="s">
         <v>417</v>
       </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B157" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>419</v>
-      </c>
-      <c r="B81" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>421</v>
-      </c>
-      <c r="B82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>423</v>
-      </c>
-      <c r="B83" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>425</v>
-      </c>
-      <c r="B84" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>427</v>
-      </c>
-      <c r="B85" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>429</v>
-      </c>
-      <c r="B86" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>431</v>
-      </c>
-      <c r="B87" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>433</v>
-      </c>
-      <c r="B88" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>435</v>
-      </c>
-      <c r="B89" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>437</v>
-      </c>
-      <c r="B90" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>439</v>
-      </c>
-      <c r="B91" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>441</v>
-      </c>
-      <c r="B92" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>443</v>
-      </c>
-      <c r="B93" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>445</v>
-      </c>
-      <c r="B94" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>447</v>
-      </c>
-      <c r="B95" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>449</v>
-      </c>
-      <c r="B96" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>451</v>
-      </c>
-      <c r="B97" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>453</v>
-      </c>
-      <c r="B98" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>455</v>
-      </c>
-      <c r="B99" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>457</v>
-      </c>
-      <c r="B100" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>459</v>
-      </c>
-      <c r="B101" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>461</v>
-      </c>
-      <c r="B102" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>463</v>
-      </c>
-      <c r="B103" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>465</v>
-      </c>
-      <c r="B104" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>467</v>
-      </c>
-      <c r="B105" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>469</v>
-      </c>
-      <c r="B106" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>471</v>
-      </c>
-      <c r="B107" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>473</v>
-      </c>
-      <c r="B108" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>475</v>
-      </c>
-      <c r="B109" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>477</v>
-      </c>
-      <c r="B110" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>479</v>
-      </c>
-      <c r="B111" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>481</v>
-      </c>
-      <c r="B112" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>483</v>
-      </c>
-      <c r="B113" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>377</v>
-      </c>
-      <c r="B114" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>431</v>
-      </c>
-      <c r="B115" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>485</v>
-      </c>
-      <c r="B116" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>487</v>
-      </c>
-      <c r="B117" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>489</v>
-      </c>
-      <c r="B118" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>491</v>
-      </c>
-      <c r="B119" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>493</v>
-      </c>
-      <c r="B120" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>495</v>
-      </c>
-      <c r="B121" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>497</v>
-      </c>
-      <c r="B122" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>499</v>
-      </c>
-      <c r="B123" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>501</v>
-      </c>
-      <c r="B124" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>503</v>
-      </c>
-      <c r="B125" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>505</v>
-      </c>
-      <c r="B126" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>507</v>
-      </c>
-      <c r="B127" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>509</v>
-      </c>
-      <c r="B128" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>511</v>
-      </c>
-      <c r="B129" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>513</v>
-      </c>
-      <c r="B130" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>515</v>
-      </c>
-      <c r="B131" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>517</v>
-      </c>
-      <c r="B132" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>519</v>
-      </c>
-      <c r="B133" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>521</v>
-      </c>
-      <c r="B134" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>523</v>
-      </c>
-      <c r="B135" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>525</v>
-      </c>
-      <c r="B136" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>527</v>
-      </c>
-      <c r="B137" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>529</v>
-      </c>
-      <c r="B138" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>531</v>
-      </c>
-      <c r="B139" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>533</v>
-      </c>
-      <c r="B140" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>535</v>
-      </c>
-      <c r="B141" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>537</v>
-      </c>
-      <c r="B142" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>539</v>
-      </c>
-      <c r="B143" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>541</v>
-      </c>
-      <c r="B144" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>543</v>
-      </c>
-      <c r="B145" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>545</v>
-      </c>
-      <c r="B146" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>547</v>
-      </c>
-      <c r="B147" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>549</v>
-      </c>
-      <c r="B148" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>551</v>
-      </c>
-      <c r="B149" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>553</v>
-      </c>
-      <c r="B150" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>555</v>
-      </c>
-      <c r="B151" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>557</v>
-      </c>
-      <c r="B152" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>559</v>
-      </c>
-      <c r="B153" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>561</v>
-      </c>
-      <c r="B154" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>437</v>
-      </c>
-      <c r="B155" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>564</v>
-      </c>
-      <c r="B156" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>566</v>
-      </c>
-      <c r="B157" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>568</v>
-      </c>
-      <c r="B158" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>570</v>
-      </c>
-      <c r="B159" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>571</v>
-      </c>
-      <c r="B160" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>573</v>
-      </c>
-      <c r="B161" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>575</v>
-      </c>
-      <c r="B162" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>577</v>
-      </c>
-      <c r="B163" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>579</v>
-      </c>
-      <c r="B164" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>581</v>
-      </c>
-      <c r="B165" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>583</v>
-      </c>
-      <c r="B166" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>585</v>
-      </c>
-      <c r="B167" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>587</v>
-      </c>
-      <c r="B168" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>589</v>
-      </c>
-      <c r="B169" t="s">
-        <v>590</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{426CD459-8B06-4E9F-A0A4-1AFF41605F8F}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{650F6271-53DC-49CB-9309-968AD6C222E9}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{C291A27D-2E17-4DE1-AEC7-28D9365266D4}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{CDA9D2C7-337F-4F89-B363-B165E7436BD4}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{6BF89E0B-6311-480F-9692-4A62A7CC2607}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{86629D94-E3EA-468A-8232-42EA48F96842}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{AED09B08-CA24-44E0-B691-6C33B5FD9F40}"/>
+    <hyperlink ref="A116" r:id="rId7" xr:uid="{1499FD0E-2D59-4CEC-8E81-24C27890DE65}"/>
+    <hyperlink ref="A115" r:id="rId8" xr:uid="{D50A0CA4-D721-4C40-AB83-0576FA893A4E}"/>
+    <hyperlink ref="A114" r:id="rId9" xr:uid="{41121C44-F5A9-4E0B-B8F2-A0AC39AD4315}"/>
+    <hyperlink ref="A113" r:id="rId10" xr:uid="{B8BB84DA-0371-4C65-8C67-739BAF5F3F7D}"/>
+    <hyperlink ref="A112" r:id="rId11" xr:uid="{D464037D-9EAA-4B04-B17A-F996ECB53F71}"/>
+    <hyperlink ref="A111" r:id="rId12" xr:uid="{07963E98-B55D-4115-8A96-6A5FD91523DF}"/>
+    <hyperlink ref="A155" r:id="rId13" xr:uid="{6EED054F-0C9F-44F1-B666-F5D6D9CEB6DB}"/>
+    <hyperlink ref="A157" r:id="rId14" xr:uid="{7805FA23-08CC-4B25-A5E1-71A0E67D271E}"/>
+    <hyperlink ref="A156" r:id="rId15" xr:uid="{4A44387B-F102-43F9-B00F-207E08477E5A}"/>
+    <hyperlink ref="A154" r:id="rId16" xr:uid="{562DF233-99C5-4D11-BA90-8432DC9BAB7C}"/>
+    <hyperlink ref="A153" r:id="rId17" xr:uid="{9E59C6C9-9C1D-4E10-8596-C50EB4C318AC}"/>
+    <hyperlink ref="A152" r:id="rId18" xr:uid="{0BC79F82-4B63-4B09-B442-32CCB9F7638A}"/>
+    <hyperlink ref="A151" r:id="rId19" xr:uid="{475A3921-DD77-4EA7-A324-54DD8DD3DB21}"/>
+    <hyperlink ref="A150" r:id="rId20" xr:uid="{2CE5DF35-DD56-4FE8-BD4E-D7A8D05CAF19}"/>
+    <hyperlink ref="A149" r:id="rId21" xr:uid="{4A185129-478C-470C-BA6D-94B9686F756A}"/>
+    <hyperlink ref="A148" r:id="rId22" xr:uid="{F0B57EBC-C017-4C40-AE85-0A28DB6C527E}"/>
+    <hyperlink ref="A147" r:id="rId23" xr:uid="{604D36C0-6852-4C79-A51E-9245620D20D2}"/>
+    <hyperlink ref="A146" r:id="rId24" xr:uid="{5D71577A-744F-471F-9287-871F1308395E}"/>
+    <hyperlink ref="A145" r:id="rId25" xr:uid="{7F7CACB0-1B29-43CB-98AC-967ED3A32850}"/>
+    <hyperlink ref="A144" r:id="rId26" xr:uid="{227A36C9-1991-4938-B605-CFFC54BE0E7F}"/>
+    <hyperlink ref="A143" r:id="rId27" xr:uid="{D4EDA5AB-2601-4319-9386-BC54315B733D}"/>
+    <hyperlink ref="A142" r:id="rId28" xr:uid="{4A121FAF-9C8E-40A9-BCF0-ACE17C1A6734}"/>
+    <hyperlink ref="A141" r:id="rId29" xr:uid="{A37BB28D-A845-4555-AA87-CBE7575E2173}"/>
+    <hyperlink ref="A140" r:id="rId30" xr:uid="{C04D0624-9E05-4139-ABF1-E48EA945C802}"/>
+    <hyperlink ref="A8" r:id="rId31" xr:uid="{3427C016-5AEB-475F-BC80-FFF94C3D65F4}"/>
+    <hyperlink ref="A9" r:id="rId32" xr:uid="{B4CA67C3-F04F-411E-9DCF-2C47EF8F76D0}"/>
+    <hyperlink ref="A10" r:id="rId33" xr:uid="{C79EADC6-4681-4E75-B4DB-FC7D85025DC1}"/>
+    <hyperlink ref="A11" r:id="rId34" xr:uid="{5FB1EC6D-F17B-44DF-AFE2-36477A4378F5}"/>
+    <hyperlink ref="A12" r:id="rId35" xr:uid="{A2E67E53-4C34-4FD1-ADBC-529D8D1BD16E}"/>
+    <hyperlink ref="A13" r:id="rId36" xr:uid="{48950401-378E-420B-8378-E89AC779F231}"/>
+    <hyperlink ref="A14" r:id="rId37" xr:uid="{75B4A0A3-BDA6-4DEB-A828-E8DEEE0C0AFE}"/>
+    <hyperlink ref="A15" r:id="rId38" xr:uid="{B6050140-9555-49C5-84A8-5F081C36C52F}"/>
+    <hyperlink ref="A16" r:id="rId39" xr:uid="{1C76FC62-0344-48B8-BDDB-4A5A542E488E}"/>
+    <hyperlink ref="A17" r:id="rId40" xr:uid="{422C5285-06DC-426B-B342-D7FF598AD139}"/>
+    <hyperlink ref="A18" r:id="rId41" xr:uid="{069FDE27-6369-4C43-B343-ABEF8B2BE500}"/>
+    <hyperlink ref="A19" r:id="rId42" xr:uid="{F2E5C2F3-CA4F-4297-A312-DD4495299536}"/>
+    <hyperlink ref="A20" r:id="rId43" xr:uid="{575F754B-D08A-47B2-80E6-CA1F9E1825B2}"/>
+    <hyperlink ref="A21" r:id="rId44" xr:uid="{74801132-482C-4A78-8336-90574E205F09}"/>
+    <hyperlink ref="A22" r:id="rId45" xr:uid="{64D9AE59-B8B7-4596-A080-15614D33F66B}"/>
+    <hyperlink ref="A23" r:id="rId46" xr:uid="{1F656D80-9629-4CFB-8EAD-7C22F9526C27}"/>
+    <hyperlink ref="A24" r:id="rId47" xr:uid="{80BA1021-9FE9-47D8-91C2-39B817303877}"/>
+    <hyperlink ref="A25" r:id="rId48" xr:uid="{DD347AEE-2D22-4C78-A291-534E48DD157B}"/>
+    <hyperlink ref="A26" r:id="rId49" xr:uid="{4D7FCA8F-BD5B-4F46-AD5B-3EDE5943D3FA}"/>
+    <hyperlink ref="A27" r:id="rId50" xr:uid="{9D4A80F4-3F71-4ADB-8DE0-310A075A816A}"/>
+    <hyperlink ref="A28" r:id="rId51" xr:uid="{1667CA40-DD7B-4CCC-8A6C-4B5DE97BCBB6}"/>
+    <hyperlink ref="A29" r:id="rId52" xr:uid="{A22FF6C0-7393-4126-B7BF-7EFC75129C24}"/>
+    <hyperlink ref="A30" r:id="rId53" xr:uid="{E54EC34D-0A2D-4B07-99D5-20C3602159C1}"/>
+    <hyperlink ref="A139" r:id="rId54" xr:uid="{2CEC7FE5-7E8D-458F-9F01-D5E497C78614}"/>
+    <hyperlink ref="A138" r:id="rId55" xr:uid="{E44EF27B-AAC6-402C-BF76-71F761D02E4C}"/>
+    <hyperlink ref="A137" r:id="rId56" xr:uid="{EA145224-8393-4FF8-9F8B-A20294A83A8A}"/>
+    <hyperlink ref="A136" r:id="rId57" xr:uid="{D6DFBE7B-0685-42B5-9A3F-977DD90140E8}"/>
+    <hyperlink ref="A135" r:id="rId58" xr:uid="{70C8305C-6121-4316-A487-1712340B3BFD}"/>
+    <hyperlink ref="A134" r:id="rId59" xr:uid="{44F4EFD9-AC88-4EE5-BEB4-F4ED75AC48EF}"/>
+    <hyperlink ref="A133" r:id="rId60" xr:uid="{48F76D06-6276-4EFB-BA39-2184BAB7EC40}"/>
+    <hyperlink ref="A132" r:id="rId61" xr:uid="{88E726A7-8DAB-4F67-9348-06C225379FC1}"/>
+    <hyperlink ref="A131" r:id="rId62" xr:uid="{E8C41DDE-AD5A-463B-9464-9C0E455707CC}"/>
+    <hyperlink ref="A130" r:id="rId63" xr:uid="{816A5A64-92FE-42A6-8CC3-11FF25ECE800}"/>
+    <hyperlink ref="A129" r:id="rId64" xr:uid="{BAF89797-069F-484D-AB17-73FC81992B5F}"/>
+    <hyperlink ref="A128" r:id="rId65" xr:uid="{DBE10F8E-F035-4BFA-B812-8EC67CB775AF}"/>
+    <hyperlink ref="A127" r:id="rId66" xr:uid="{BE13833F-D646-472E-BE2A-0FB6D5E98269}"/>
+    <hyperlink ref="A126" r:id="rId67" xr:uid="{3608A338-4FDA-47E7-A6A2-07BE7F506C81}"/>
+    <hyperlink ref="A125" r:id="rId68" xr:uid="{34F05888-8C06-49DC-8247-C8502CC9343B}"/>
+    <hyperlink ref="A124" r:id="rId69" xr:uid="{F06C995D-80F2-4718-8B7A-7E884C70E35A}"/>
+    <hyperlink ref="A123" r:id="rId70" xr:uid="{8EECF315-9B74-401B-B503-158492C85187}"/>
+    <hyperlink ref="A122" r:id="rId71" xr:uid="{98B10137-6A2F-4DE1-B9AA-38CBDAEAC266}"/>
+    <hyperlink ref="A121" r:id="rId72" xr:uid="{8FA1C60C-A1B7-4B93-A3ED-8D73CFA45199}"/>
+    <hyperlink ref="A120" r:id="rId73" xr:uid="{5CA429E0-C270-414C-801D-3ACD7FE5E4E0}"/>
+    <hyperlink ref="A31" r:id="rId74" xr:uid="{89AFF113-B922-4498-A727-ACB21CBC79DB}"/>
+    <hyperlink ref="A32" r:id="rId75" xr:uid="{1F6C8999-A1B4-4381-9BC3-3B48897FCC16}"/>
+    <hyperlink ref="A119" r:id="rId76" xr:uid="{A71A395C-8D4A-4C19-A5D0-944136775560}"/>
+    <hyperlink ref="A118" r:id="rId77" xr:uid="{363A0A3A-CDCE-4D9D-B4F7-5ED91A31BD87}"/>
+    <hyperlink ref="A117" r:id="rId78" xr:uid="{FFA7ADFF-E35F-4CFD-9881-5D40D0EF31E8}"/>
+    <hyperlink ref="A110" r:id="rId79" xr:uid="{98537EAB-5ADC-4B89-B737-44C4B0073E9B}"/>
+    <hyperlink ref="A109" r:id="rId80" xr:uid="{3E152279-5E48-4BCF-ABEF-5B5FB807B432}"/>
+    <hyperlink ref="A108" r:id="rId81" xr:uid="{217767E4-02E5-4B1A-8113-3FEFF3AFAEA1}"/>
+    <hyperlink ref="A107" r:id="rId82" xr:uid="{D76AFD21-9F84-4B0A-A5F2-4357F0D57EC1}"/>
+    <hyperlink ref="A106" r:id="rId83" xr:uid="{B411B6A7-8060-497A-B618-908D3C69C2BC}"/>
+    <hyperlink ref="A105" r:id="rId84" xr:uid="{5E340616-777F-4078-B3C1-7F171DFC40C9}"/>
+    <hyperlink ref="A104" r:id="rId85" xr:uid="{646F43F3-B7FD-4B09-B06B-BB405D4FDA7F}"/>
+    <hyperlink ref="A103" r:id="rId86" xr:uid="{602C6C85-31A1-4E0E-83D9-7FE925A7A27A}"/>
+    <hyperlink ref="A102" r:id="rId87" xr:uid="{0CE9776C-A5BB-4D64-8F1C-2FA6BF88E020}"/>
+    <hyperlink ref="A101" r:id="rId88" xr:uid="{A4524A4B-9B0E-4695-B008-E8FCB0B40926}"/>
+    <hyperlink ref="A100" r:id="rId89" xr:uid="{6B9E60E4-18F6-4226-85E9-3607593CF5FF}"/>
+    <hyperlink ref="A99" r:id="rId90" xr:uid="{32B009BF-E0B7-4162-862B-4D117E701897}"/>
+    <hyperlink ref="A98" r:id="rId91" xr:uid="{6BE33E54-F567-475E-A566-E5D0621B0D1A}"/>
+    <hyperlink ref="A97" r:id="rId92" xr:uid="{DE357C8B-A258-40F7-B5CF-9183FA8C176B}"/>
+    <hyperlink ref="A96" r:id="rId93" xr:uid="{840A93EB-729D-4744-8113-52136456FCF9}"/>
+    <hyperlink ref="A95" r:id="rId94" xr:uid="{8FF7CF0A-6922-432C-98E8-F9CDE421185A}"/>
+    <hyperlink ref="A94" r:id="rId95" xr:uid="{75CB3318-0E2E-4254-A846-A77F69BD2424}"/>
+    <hyperlink ref="A93" r:id="rId96" xr:uid="{9715CA62-0189-4439-8FC7-AED16A01A802}"/>
+    <hyperlink ref="A92" r:id="rId97" xr:uid="{F8859BE9-E8D2-4782-849A-1888ACCB8F02}"/>
+    <hyperlink ref="A91" r:id="rId98" xr:uid="{4819C2D7-9B53-44AD-A52B-B2508CF775FD}"/>
+    <hyperlink ref="A90" r:id="rId99" xr:uid="{0C80FD41-CF26-4F55-BCF6-A1BF5320DA56}"/>
+    <hyperlink ref="A89" r:id="rId100" xr:uid="{D84F23D9-4BC8-43E5-9B9C-D40A192D6747}"/>
+    <hyperlink ref="A88" r:id="rId101" xr:uid="{F7CEC93A-830B-486D-9F46-564ED2250147}"/>
+    <hyperlink ref="A33" r:id="rId102" xr:uid="{68FF08DD-16AE-40C5-8B8C-E37FE6AA4DBE}"/>
+    <hyperlink ref="A34" r:id="rId103" xr:uid="{4EB13555-C743-4F95-BCEA-B6262A647627}"/>
+    <hyperlink ref="A35" r:id="rId104" xr:uid="{619C8C26-E56E-49E6-A551-20A85D3BEEE8}"/>
+    <hyperlink ref="A36" r:id="rId105" xr:uid="{B1451A5E-FD64-4F09-B24B-BA240D33ED0D}"/>
+    <hyperlink ref="A37" r:id="rId106" xr:uid="{AD3383F4-BAA2-4D73-BE08-8A1A931A8211}"/>
+    <hyperlink ref="A87" r:id="rId107" xr:uid="{C5D19A72-A892-46AD-9702-F57A0CCB61F6}"/>
+    <hyperlink ref="A86" r:id="rId108" xr:uid="{88565646-4C69-4700-953E-9FD92F75104C}"/>
+    <hyperlink ref="A85" r:id="rId109" xr:uid="{F7A4B47D-3C92-49AD-9167-1ABB4C2FE6EB}"/>
+    <hyperlink ref="A84" r:id="rId110" xr:uid="{539C005D-6F62-4545-A6AA-2F3F03181F22}"/>
+    <hyperlink ref="A83" r:id="rId111" xr:uid="{0DD2CFA6-2F11-4CFF-8904-B8D335437F29}"/>
+    <hyperlink ref="A82" r:id="rId112" xr:uid="{8B635595-0983-44B6-BBAF-E2470D92C70A}"/>
+    <hyperlink ref="A81" r:id="rId113" xr:uid="{5EEA427C-9ADB-4E48-8AA1-C9CE65036BFD}"/>
+    <hyperlink ref="A80" r:id="rId114" xr:uid="{5869362E-4DC9-4537-B099-910A719A1A46}"/>
+    <hyperlink ref="A79" r:id="rId115" xr:uid="{2B131CD4-6D79-4C38-9206-4B00282C0D9D}"/>
+    <hyperlink ref="A78" r:id="rId116" xr:uid="{2D9583E8-D2BC-4D52-A344-AB441327661B}"/>
+    <hyperlink ref="A77" r:id="rId117" xr:uid="{07AA32F5-9267-4B22-A89C-8F2739A924D3}"/>
+    <hyperlink ref="A76" r:id="rId118" xr:uid="{053FAC32-49E3-41EC-8986-D959A6B6B6D3}"/>
+    <hyperlink ref="A75" r:id="rId119" xr:uid="{7E8B0051-409C-40D8-957A-3BF31CC29220}"/>
+    <hyperlink ref="A74" r:id="rId120" xr:uid="{13BBBCFD-276B-4575-A25C-00C11DA981BD}"/>
+    <hyperlink ref="A73" r:id="rId121" xr:uid="{00D1DD2F-056E-4BA9-98B5-B64BDC1765A3}"/>
+    <hyperlink ref="A72" r:id="rId122" xr:uid="{55BB0AE2-6EB3-4211-BB6D-E607204FC5C5}"/>
+    <hyperlink ref="A71" r:id="rId123" xr:uid="{B4A0FBDE-139E-4A68-AC2E-E355866E3DDE}"/>
+    <hyperlink ref="A70" r:id="rId124" xr:uid="{0EC043E5-09F7-4B59-A693-D30867BCD6EB}"/>
+    <hyperlink ref="A69" r:id="rId125" xr:uid="{679A35BA-A839-4A42-8B33-2E55EBBFA896}"/>
+    <hyperlink ref="A68" r:id="rId126" xr:uid="{42EBA66F-5EFB-46B1-A9BA-20C143DEB1E1}"/>
+    <hyperlink ref="A67" r:id="rId127" xr:uid="{731CD855-6504-4D42-87CE-3C787B6D9BE6}"/>
+    <hyperlink ref="A66" r:id="rId128" xr:uid="{BE51BEC3-6FD4-4BDB-8293-61B14BE977C1}"/>
+    <hyperlink ref="A65" r:id="rId129" xr:uid="{2D45E586-703B-4AA8-91AA-FFFE30245972}"/>
+    <hyperlink ref="A64" r:id="rId130" xr:uid="{A328B25F-16BE-4F6F-8935-1AE7D57866ED}"/>
+    <hyperlink ref="A63" r:id="rId131" xr:uid="{BF242645-1AB0-45A6-9299-2F056A824237}"/>
+    <hyperlink ref="A62" r:id="rId132" xr:uid="{A9F45347-79CA-44C3-8569-7FC7487927F4}"/>
+    <hyperlink ref="A61" r:id="rId133" xr:uid="{DE5BD8B0-8241-4B37-8758-A87A0F0692CA}"/>
+    <hyperlink ref="A60" r:id="rId134" xr:uid="{0B14D8AA-DA6B-4C2F-BBC0-51EE070889CE}"/>
+    <hyperlink ref="A59" r:id="rId135" xr:uid="{29E2FC5E-0747-4CC2-B1F4-1A6B1E4B5882}"/>
+    <hyperlink ref="A58" r:id="rId136" xr:uid="{EB9E01CF-F8C3-4E9C-BFE1-027D3FA5DD51}"/>
+    <hyperlink ref="A57" r:id="rId137" xr:uid="{D2A885E4-E810-4064-8A28-452C9ECCC3D1}"/>
+    <hyperlink ref="A56" r:id="rId138" xr:uid="{52E48E42-83D2-49DB-A375-D6076B6A07D0}"/>
+    <hyperlink ref="A55" r:id="rId139" xr:uid="{0B05983F-42E6-4DC5-B4C1-CCE5D9F8CB19}"/>
+    <hyperlink ref="A54" r:id="rId140" xr:uid="{F1FB27D4-5722-4108-88D0-67DB9A1D0712}"/>
+    <hyperlink ref="A53" r:id="rId141" xr:uid="{E89263D6-0737-455B-812B-9C3A34BB6F76}"/>
+    <hyperlink ref="A52" r:id="rId142" xr:uid="{B923223F-C48C-4A10-A096-8F790C869410}"/>
+    <hyperlink ref="A51" r:id="rId143" xr:uid="{54141EF4-5539-41A3-950B-85E855CEE411}"/>
+    <hyperlink ref="A50" r:id="rId144" xr:uid="{0D3DDAAB-7173-468D-8A78-8475C32DB254}"/>
+    <hyperlink ref="A49" r:id="rId145" xr:uid="{DEE81C4F-AD80-4605-A30F-98A187C94127}"/>
+    <hyperlink ref="A48" r:id="rId146" xr:uid="{EFB94F84-3E3D-484C-901B-D725B5AE69C1}"/>
+    <hyperlink ref="A47" r:id="rId147" xr:uid="{A85A6E07-207A-427E-87C3-6864A87FA0A5}"/>
+    <hyperlink ref="A46" r:id="rId148" xr:uid="{D5EA2BAB-E6EB-4B5B-B886-E2E4C933F6BD}"/>
+    <hyperlink ref="A45" r:id="rId149" xr:uid="{439A0965-8568-4811-AA14-2F88C22387CC}"/>
+    <hyperlink ref="A44" r:id="rId150" xr:uid="{E99A582B-27E9-4CAF-88AE-3291BD4D70B3}"/>
+    <hyperlink ref="A43" r:id="rId151" xr:uid="{F2467FDF-9EC5-401C-AF15-C65DA60D3A40}"/>
+    <hyperlink ref="A42" r:id="rId152" xr:uid="{6F7FCA42-6B9F-46D1-865A-9E05CFB528B7}"/>
+    <hyperlink ref="A41" r:id="rId153" xr:uid="{1ED306F8-AD11-4FE8-B19F-2E8E54951C51}"/>
+    <hyperlink ref="A40" r:id="rId154" xr:uid="{ED8FAC06-6B1E-412E-8EE5-2A8D6E9BE064}"/>
+    <hyperlink ref="A39" r:id="rId155" xr:uid="{05402B02-68B4-4BC3-9946-24E4EFBB85C2}"/>
+    <hyperlink ref="A38" r:id="rId156" xr:uid="{475E9A58-7C8A-4B9F-ADC4-1A8E288B174E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId157"/>
 </worksheet>
 </file>
--- a/Normal/xyz.xlsx
+++ b/Normal/xyz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A2F4EC-0F38-4B77-86FB-ED0BBBC4F24A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F05E607-EE4C-407D-BF30-3174B9B23D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="567">
   <si>
     <t>地址</t>
   </si>
@@ -911,21 +911,12 @@
     <t>呜嘞哇啦</t>
   </si>
   <si>
-    <t>我爱看图</t>
-  </si>
-  <si>
     <t>优优美女网</t>
   </si>
   <si>
-    <t>TaotuXP</t>
-  </si>
-  <si>
     <t>iTuba</t>
   </si>
   <si>
-    <t>Kaka1234</t>
-  </si>
-  <si>
     <t>美图录[机构]</t>
   </si>
   <si>
@@ -1576,10 +1567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.5ikantu.org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.tuiimg.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1688,15 +1675,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.taotuxp.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.ituba.cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.kaka1234.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1939,7 +1918,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1949,6 +1928,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1966,12 +1951,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3201,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3224,7 +3210,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>266</v>
@@ -3232,7 +3218,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
         <v>267</v>
@@ -3240,7 +3226,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
         <v>268</v>
@@ -3248,7 +3234,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
         <v>269</v>
@@ -3256,7 +3242,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
         <v>270</v>
@@ -3264,7 +3250,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
         <v>271</v>
@@ -3272,7 +3258,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B8" t="s">
         <v>272</v>
@@ -3280,7 +3266,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B9" t="s">
         <v>273</v>
@@ -3288,7 +3274,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B10" t="s">
         <v>274</v>
@@ -3296,7 +3282,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
         <v>275</v>
@@ -3304,7 +3290,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B12" t="s">
         <v>276</v>
@@ -3312,7 +3298,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B13" t="s">
         <v>277</v>
@@ -3320,7 +3306,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B14" t="s">
         <v>278</v>
@@ -3328,7 +3314,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B15" t="s">
         <v>279</v>
@@ -3336,7 +3322,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B16" t="s">
         <v>280</v>
@@ -3344,7 +3330,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B17" t="s">
         <v>281</v>
@@ -3352,7 +3338,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B18" t="s">
         <v>282</v>
@@ -3360,7 +3346,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B19" t="s">
         <v>283</v>
@@ -3368,7 +3354,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B20" t="s">
         <v>284</v>
@@ -3376,7 +3362,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B21" t="s">
         <v>285</v>
@@ -3384,7 +3370,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B22" t="s">
         <v>286</v>
@@ -3392,7 +3378,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B23" t="s">
         <v>287</v>
@@ -3400,7 +3386,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B24" t="s">
         <v>288</v>
@@ -3408,7 +3394,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B25" t="s">
         <v>289</v>
@@ -3416,7 +3402,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B26" t="s">
         <v>290</v>
@@ -3424,18 +3410,18 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B27" t="s">
         <v>291</v>
       </c>
       <c r="C27" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B28" t="s">
         <v>292</v>
@@ -3443,7 +3429,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B29" t="s">
         <v>293</v>
@@ -3451,7 +3437,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B30" t="s">
         <v>294</v>
@@ -3459,144 +3445,145 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B31" t="s">
         <v>295</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="B32" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B33" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>521</v>
+        <v>417</v>
       </c>
       <c r="B34" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>522</v>
+        <v>564</v>
       </c>
       <c r="B35" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>523</v>
+        <v>563</v>
       </c>
       <c r="B36" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>420</v>
+        <v>562</v>
       </c>
       <c r="B37" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B38" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B39" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="B40" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B41" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B42" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B43" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B44" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>563</v>
+        <v>501</v>
       </c>
       <c r="B45" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B46" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>505</v>
+        <v>552</v>
       </c>
       <c r="B48" t="s">
         <v>312</v>
@@ -3604,7 +3591,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B49" t="s">
         <v>313</v>
@@ -3612,7 +3599,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B50" t="s">
         <v>314</v>
@@ -3620,7 +3607,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B51" t="s">
         <v>315</v>
@@ -3628,7 +3615,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B52" t="s">
         <v>316</v>
@@ -3636,7 +3623,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B53" t="s">
         <v>317</v>
@@ -3644,7 +3631,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B54" t="s">
         <v>318</v>
@@ -3652,7 +3639,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B55" t="s">
         <v>319</v>
@@ -3660,7 +3647,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B56" t="s">
         <v>320</v>
@@ -3668,7 +3655,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B57" t="s">
         <v>321</v>
@@ -3676,7 +3663,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B58" t="s">
         <v>322</v>
@@ -3684,7 +3671,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B59" t="s">
         <v>323</v>
@@ -3692,7 +3679,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B60" t="s">
         <v>324</v>
@@ -3700,7 +3687,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B61" t="s">
         <v>325</v>
@@ -3708,7 +3695,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B62" t="s">
         <v>326</v>
@@ -3716,7 +3703,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B63" t="s">
         <v>327</v>
@@ -3724,7 +3711,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B64" t="s">
         <v>328</v>
@@ -3732,7 +3719,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B65" t="s">
         <v>329</v>
@@ -3740,7 +3727,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B66" t="s">
         <v>330</v>
@@ -3748,7 +3735,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B67" t="s">
         <v>331</v>
@@ -3756,7 +3743,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B68" t="s">
         <v>332</v>
@@ -3764,7 +3751,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B69" t="s">
         <v>333</v>
@@ -3772,7 +3759,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B70" t="s">
         <v>334</v>
@@ -3780,7 +3767,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B71" t="s">
         <v>335</v>
@@ -3788,7 +3775,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
       <c r="B72" t="s">
         <v>336</v>
@@ -3796,7 +3783,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B73" t="s">
         <v>337</v>
@@ -3804,7 +3791,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B74" t="s">
         <v>338</v>
@@ -3812,7 +3799,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
       <c r="B75" t="s">
         <v>339</v>
@@ -3820,7 +3807,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B76" t="s">
         <v>340</v>
@@ -3828,7 +3815,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B77" t="s">
         <v>341</v>
@@ -3836,7 +3823,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>446</v>
+        <v>524</v>
       </c>
       <c r="B78" t="s">
         <v>342</v>
@@ -3844,7 +3831,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s">
         <v>343</v>
@@ -3852,7 +3839,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B80" t="s">
         <v>344</v>
@@ -3860,7 +3847,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B81" t="s">
         <v>345</v>
@@ -3868,7 +3855,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B82" t="s">
         <v>346</v>
@@ -3876,7 +3863,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B83" t="s">
         <v>347</v>
@@ -3884,7 +3871,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B84" t="s">
         <v>348</v>
@@ -3892,7 +3879,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B85" t="s">
         <v>349</v>
@@ -3900,7 +3887,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B86" t="s">
         <v>350</v>
@@ -3908,7 +3895,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B87" t="s">
         <v>351</v>
@@ -3916,7 +3903,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B88" t="s">
         <v>352</v>
@@ -3924,7 +3911,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s">
         <v>353</v>
@@ -3932,7 +3919,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B90" t="s">
         <v>354</v>
@@ -3940,7 +3927,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B91" t="s">
         <v>355</v>
@@ -3948,7 +3935,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B92" t="s">
         <v>356</v>
@@ -3956,7 +3943,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B93" t="s">
         <v>357</v>
@@ -3964,7 +3951,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B94" t="s">
         <v>358</v>
@@ -3972,7 +3959,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B95" t="s">
         <v>359</v>
@@ -3980,7 +3967,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B96" t="s">
         <v>360</v>
@@ -3988,7 +3975,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B97" t="s">
         <v>361</v>
@@ -3996,7 +3983,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B98" t="s">
         <v>362</v>
@@ -4004,47 +3991,47 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B99" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B100" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B101" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B102" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B103" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B104" t="s">
         <v>366</v>
@@ -4052,7 +4039,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B105" t="s">
         <v>367</v>
@@ -4060,7 +4047,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B106" t="s">
         <v>368</v>
@@ -4068,7 +4055,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B107" t="s">
         <v>369</v>
@@ -4076,7 +4063,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>499</v>
+        <v>428</v>
       </c>
       <c r="B108" t="s">
         <v>370</v>
@@ -4084,7 +4071,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>498</v>
+        <v>427</v>
       </c>
       <c r="B109" t="s">
         <v>371</v>
@@ -4092,7 +4079,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>497</v>
+        <v>426</v>
       </c>
       <c r="B110" t="s">
         <v>372</v>
@@ -4100,7 +4087,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B111" t="s">
         <v>373</v>
@@ -4108,7 +4095,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B112" t="s">
         <v>374</v>
@@ -4116,7 +4103,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B113" t="s">
         <v>375</v>
@@ -4124,7 +4111,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="B114" t="s">
         <v>376</v>
@@ -4132,7 +4119,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="B115" t="s">
         <v>377</v>
@@ -4140,7 +4127,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="B116" t="s">
         <v>378</v>
@@ -4148,7 +4135,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B117" t="s">
         <v>379</v>
@@ -4156,7 +4143,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B118" t="s">
         <v>380</v>
@@ -4164,7 +4151,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B119" t="s">
         <v>381</v>
@@ -4172,7 +4159,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B120" t="s">
         <v>382</v>
@@ -4180,7 +4167,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B121" t="s">
         <v>383</v>
@@ -4188,7 +4175,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B122" t="s">
         <v>384</v>
@@ -4196,7 +4183,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B123" t="s">
         <v>385</v>
@@ -4204,7 +4191,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B124" t="s">
         <v>386</v>
@@ -4212,7 +4199,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B125" t="s">
         <v>387</v>
@@ -4220,7 +4207,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B126" t="s">
         <v>388</v>
@@ -4228,7 +4215,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B127" t="s">
         <v>389</v>
@@ -4236,7 +4223,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B128" t="s">
         <v>390</v>
@@ -4244,7 +4231,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B129" t="s">
         <v>391</v>
@@ -4252,7 +4239,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B130" t="s">
         <v>392</v>
@@ -4260,7 +4247,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B131" t="s">
         <v>393</v>
@@ -4268,7 +4255,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B132" t="s">
         <v>394</v>
@@ -4276,7 +4263,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B133" t="s">
         <v>395</v>
@@ -4284,7 +4271,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B134" t="s">
         <v>396</v>
@@ -4292,7 +4279,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B135" t="s">
         <v>397</v>
@@ -4300,7 +4287,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B136" t="s">
         <v>398</v>
@@ -4308,7 +4295,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="B137" t="s">
         <v>399</v>
@@ -4316,7 +4303,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="B138" t="s">
         <v>400</v>
@@ -4324,7 +4311,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B139" t="s">
         <v>401</v>
@@ -4332,7 +4319,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B140" t="s">
         <v>402</v>
@@ -4340,7 +4327,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B141" t="s">
         <v>403</v>
@@ -4348,7 +4335,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B142" t="s">
         <v>404</v>
@@ -4356,7 +4343,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B143" t="s">
         <v>405</v>
@@ -4364,39 +4351,39 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B144" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B145" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B146" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B147" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B148" t="s">
         <v>409</v>
@@ -4404,7 +4391,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B149" t="s">
         <v>410</v>
@@ -4412,7 +4399,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B150" t="s">
         <v>411</v>
@@ -4420,7 +4407,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B151" t="s">
         <v>412</v>
@@ -4428,7 +4415,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B152" t="s">
         <v>413</v>
@@ -4436,7 +4423,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B153" t="s">
         <v>414</v>
@@ -4444,34 +4431,10 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B154" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B155" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B156" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B157" t="s">
-        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4483,30 +4446,30 @@
     <hyperlink ref="A5" r:id="rId4" xr:uid="{6BF89E0B-6311-480F-9692-4A62A7CC2607}"/>
     <hyperlink ref="A6" r:id="rId5" xr:uid="{86629D94-E3EA-468A-8232-42EA48F96842}"/>
     <hyperlink ref="A7" r:id="rId6" xr:uid="{AED09B08-CA24-44E0-B691-6C33B5FD9F40}"/>
-    <hyperlink ref="A116" r:id="rId7" xr:uid="{1499FD0E-2D59-4CEC-8E81-24C27890DE65}"/>
-    <hyperlink ref="A115" r:id="rId8" xr:uid="{D50A0CA4-D721-4C40-AB83-0576FA893A4E}"/>
-    <hyperlink ref="A114" r:id="rId9" xr:uid="{41121C44-F5A9-4E0B-B8F2-A0AC39AD4315}"/>
-    <hyperlink ref="A113" r:id="rId10" xr:uid="{B8BB84DA-0371-4C65-8C67-739BAF5F3F7D}"/>
-    <hyperlink ref="A112" r:id="rId11" xr:uid="{D464037D-9EAA-4B04-B17A-F996ECB53F71}"/>
-    <hyperlink ref="A111" r:id="rId12" xr:uid="{07963E98-B55D-4115-8A96-6A5FD91523DF}"/>
-    <hyperlink ref="A155" r:id="rId13" xr:uid="{6EED054F-0C9F-44F1-B666-F5D6D9CEB6DB}"/>
-    <hyperlink ref="A157" r:id="rId14" xr:uid="{7805FA23-08CC-4B25-A5E1-71A0E67D271E}"/>
-    <hyperlink ref="A156" r:id="rId15" xr:uid="{4A44387B-F102-43F9-B00F-207E08477E5A}"/>
-    <hyperlink ref="A154" r:id="rId16" xr:uid="{562DF233-99C5-4D11-BA90-8432DC9BAB7C}"/>
-    <hyperlink ref="A153" r:id="rId17" xr:uid="{9E59C6C9-9C1D-4E10-8596-C50EB4C318AC}"/>
-    <hyperlink ref="A152" r:id="rId18" xr:uid="{0BC79F82-4B63-4B09-B442-32CCB9F7638A}"/>
-    <hyperlink ref="A151" r:id="rId19" xr:uid="{475A3921-DD77-4EA7-A324-54DD8DD3DB21}"/>
-    <hyperlink ref="A150" r:id="rId20" xr:uid="{2CE5DF35-DD56-4FE8-BD4E-D7A8D05CAF19}"/>
-    <hyperlink ref="A149" r:id="rId21" xr:uid="{4A185129-478C-470C-BA6D-94B9686F756A}"/>
-    <hyperlink ref="A148" r:id="rId22" xr:uid="{F0B57EBC-C017-4C40-AE85-0A28DB6C527E}"/>
-    <hyperlink ref="A147" r:id="rId23" xr:uid="{604D36C0-6852-4C79-A51E-9245620D20D2}"/>
-    <hyperlink ref="A146" r:id="rId24" xr:uid="{5D71577A-744F-471F-9287-871F1308395E}"/>
-    <hyperlink ref="A145" r:id="rId25" xr:uid="{7F7CACB0-1B29-43CB-98AC-967ED3A32850}"/>
-    <hyperlink ref="A144" r:id="rId26" xr:uid="{227A36C9-1991-4938-B605-CFFC54BE0E7F}"/>
-    <hyperlink ref="A143" r:id="rId27" xr:uid="{D4EDA5AB-2601-4319-9386-BC54315B733D}"/>
-    <hyperlink ref="A142" r:id="rId28" xr:uid="{4A121FAF-9C8E-40A9-BCF0-ACE17C1A6734}"/>
-    <hyperlink ref="A141" r:id="rId29" xr:uid="{A37BB28D-A845-4555-AA87-CBE7575E2173}"/>
-    <hyperlink ref="A140" r:id="rId30" xr:uid="{C04D0624-9E05-4139-ABF1-E48EA945C802}"/>
+    <hyperlink ref="A113" r:id="rId7" xr:uid="{1499FD0E-2D59-4CEC-8E81-24C27890DE65}"/>
+    <hyperlink ref="A112" r:id="rId8" xr:uid="{D50A0CA4-D721-4C40-AB83-0576FA893A4E}"/>
+    <hyperlink ref="A111" r:id="rId9" xr:uid="{41121C44-F5A9-4E0B-B8F2-A0AC39AD4315}"/>
+    <hyperlink ref="A110" r:id="rId10" xr:uid="{B8BB84DA-0371-4C65-8C67-739BAF5F3F7D}"/>
+    <hyperlink ref="A109" r:id="rId11" xr:uid="{D464037D-9EAA-4B04-B17A-F996ECB53F71}"/>
+    <hyperlink ref="A108" r:id="rId12" xr:uid="{07963E98-B55D-4115-8A96-6A5FD91523DF}"/>
+    <hyperlink ref="A152" r:id="rId13" xr:uid="{6EED054F-0C9F-44F1-B666-F5D6D9CEB6DB}"/>
+    <hyperlink ref="A154" r:id="rId14" xr:uid="{7805FA23-08CC-4B25-A5E1-71A0E67D271E}"/>
+    <hyperlink ref="A153" r:id="rId15" xr:uid="{4A44387B-F102-43F9-B00F-207E08477E5A}"/>
+    <hyperlink ref="A151" r:id="rId16" xr:uid="{562DF233-99C5-4D11-BA90-8432DC9BAB7C}"/>
+    <hyperlink ref="A150" r:id="rId17" xr:uid="{9E59C6C9-9C1D-4E10-8596-C50EB4C318AC}"/>
+    <hyperlink ref="A149" r:id="rId18" xr:uid="{0BC79F82-4B63-4B09-B442-32CCB9F7638A}"/>
+    <hyperlink ref="A148" r:id="rId19" xr:uid="{475A3921-DD77-4EA7-A324-54DD8DD3DB21}"/>
+    <hyperlink ref="A147" r:id="rId20" xr:uid="{2CE5DF35-DD56-4FE8-BD4E-D7A8D05CAF19}"/>
+    <hyperlink ref="A146" r:id="rId21" xr:uid="{4A185129-478C-470C-BA6D-94B9686F756A}"/>
+    <hyperlink ref="A145" r:id="rId22" xr:uid="{F0B57EBC-C017-4C40-AE85-0A28DB6C527E}"/>
+    <hyperlink ref="A144" r:id="rId23" xr:uid="{604D36C0-6852-4C79-A51E-9245620D20D2}"/>
+    <hyperlink ref="A143" r:id="rId24" xr:uid="{5D71577A-744F-471F-9287-871F1308395E}"/>
+    <hyperlink ref="A142" r:id="rId25" xr:uid="{7F7CACB0-1B29-43CB-98AC-967ED3A32850}"/>
+    <hyperlink ref="A141" r:id="rId26" xr:uid="{227A36C9-1991-4938-B605-CFFC54BE0E7F}"/>
+    <hyperlink ref="A140" r:id="rId27" xr:uid="{D4EDA5AB-2601-4319-9386-BC54315B733D}"/>
+    <hyperlink ref="A139" r:id="rId28" xr:uid="{4A121FAF-9C8E-40A9-BCF0-ACE17C1A6734}"/>
+    <hyperlink ref="A138" r:id="rId29" xr:uid="{A37BB28D-A845-4555-AA87-CBE7575E2173}"/>
+    <hyperlink ref="A137" r:id="rId30" xr:uid="{C04D0624-9E05-4139-ABF1-E48EA945C802}"/>
     <hyperlink ref="A8" r:id="rId31" xr:uid="{3427C016-5AEB-475F-BC80-FFF94C3D65F4}"/>
     <hyperlink ref="A9" r:id="rId32" xr:uid="{B4CA67C3-F04F-411E-9DCF-2C47EF8F76D0}"/>
     <hyperlink ref="A10" r:id="rId33" xr:uid="{C79EADC6-4681-4E75-B4DB-FC7D85025DC1}"/>
@@ -4530,111 +4493,108 @@
     <hyperlink ref="A28" r:id="rId51" xr:uid="{1667CA40-DD7B-4CCC-8A6C-4B5DE97BCBB6}"/>
     <hyperlink ref="A29" r:id="rId52" xr:uid="{A22FF6C0-7393-4126-B7BF-7EFC75129C24}"/>
     <hyperlink ref="A30" r:id="rId53" xr:uid="{E54EC34D-0A2D-4B07-99D5-20C3602159C1}"/>
-    <hyperlink ref="A139" r:id="rId54" xr:uid="{2CEC7FE5-7E8D-458F-9F01-D5E497C78614}"/>
-    <hyperlink ref="A138" r:id="rId55" xr:uid="{E44EF27B-AAC6-402C-BF76-71F761D02E4C}"/>
-    <hyperlink ref="A137" r:id="rId56" xr:uid="{EA145224-8393-4FF8-9F8B-A20294A83A8A}"/>
-    <hyperlink ref="A136" r:id="rId57" xr:uid="{D6DFBE7B-0685-42B5-9A3F-977DD90140E8}"/>
-    <hyperlink ref="A135" r:id="rId58" xr:uid="{70C8305C-6121-4316-A487-1712340B3BFD}"/>
-    <hyperlink ref="A134" r:id="rId59" xr:uid="{44F4EFD9-AC88-4EE5-BEB4-F4ED75AC48EF}"/>
-    <hyperlink ref="A133" r:id="rId60" xr:uid="{48F76D06-6276-4EFB-BA39-2184BAB7EC40}"/>
-    <hyperlink ref="A132" r:id="rId61" xr:uid="{88E726A7-8DAB-4F67-9348-06C225379FC1}"/>
-    <hyperlink ref="A131" r:id="rId62" xr:uid="{E8C41DDE-AD5A-463B-9464-9C0E455707CC}"/>
-    <hyperlink ref="A130" r:id="rId63" xr:uid="{816A5A64-92FE-42A6-8CC3-11FF25ECE800}"/>
-    <hyperlink ref="A129" r:id="rId64" xr:uid="{BAF89797-069F-484D-AB17-73FC81992B5F}"/>
-    <hyperlink ref="A128" r:id="rId65" xr:uid="{DBE10F8E-F035-4BFA-B812-8EC67CB775AF}"/>
-    <hyperlink ref="A127" r:id="rId66" xr:uid="{BE13833F-D646-472E-BE2A-0FB6D5E98269}"/>
-    <hyperlink ref="A126" r:id="rId67" xr:uid="{3608A338-4FDA-47E7-A6A2-07BE7F506C81}"/>
-    <hyperlink ref="A125" r:id="rId68" xr:uid="{34F05888-8C06-49DC-8247-C8502CC9343B}"/>
-    <hyperlink ref="A124" r:id="rId69" xr:uid="{F06C995D-80F2-4718-8B7A-7E884C70E35A}"/>
-    <hyperlink ref="A123" r:id="rId70" xr:uid="{8EECF315-9B74-401B-B503-158492C85187}"/>
-    <hyperlink ref="A122" r:id="rId71" xr:uid="{98B10137-6A2F-4DE1-B9AA-38CBDAEAC266}"/>
-    <hyperlink ref="A121" r:id="rId72" xr:uid="{8FA1C60C-A1B7-4B93-A3ED-8D73CFA45199}"/>
-    <hyperlink ref="A120" r:id="rId73" xr:uid="{5CA429E0-C270-414C-801D-3ACD7FE5E4E0}"/>
+    <hyperlink ref="A136" r:id="rId54" xr:uid="{2CEC7FE5-7E8D-458F-9F01-D5E497C78614}"/>
+    <hyperlink ref="A135" r:id="rId55" xr:uid="{E44EF27B-AAC6-402C-BF76-71F761D02E4C}"/>
+    <hyperlink ref="A134" r:id="rId56" xr:uid="{EA145224-8393-4FF8-9F8B-A20294A83A8A}"/>
+    <hyperlink ref="A133" r:id="rId57" xr:uid="{D6DFBE7B-0685-42B5-9A3F-977DD90140E8}"/>
+    <hyperlink ref="A132" r:id="rId58" xr:uid="{70C8305C-6121-4316-A487-1712340B3BFD}"/>
+    <hyperlink ref="A131" r:id="rId59" xr:uid="{44F4EFD9-AC88-4EE5-BEB4-F4ED75AC48EF}"/>
+    <hyperlink ref="A130" r:id="rId60" xr:uid="{48F76D06-6276-4EFB-BA39-2184BAB7EC40}"/>
+    <hyperlink ref="A129" r:id="rId61" xr:uid="{88E726A7-8DAB-4F67-9348-06C225379FC1}"/>
+    <hyperlink ref="A128" r:id="rId62" xr:uid="{E8C41DDE-AD5A-463B-9464-9C0E455707CC}"/>
+    <hyperlink ref="A127" r:id="rId63" xr:uid="{816A5A64-92FE-42A6-8CC3-11FF25ECE800}"/>
+    <hyperlink ref="A126" r:id="rId64" xr:uid="{BAF89797-069F-484D-AB17-73FC81992B5F}"/>
+    <hyperlink ref="A125" r:id="rId65" xr:uid="{DBE10F8E-F035-4BFA-B812-8EC67CB775AF}"/>
+    <hyperlink ref="A124" r:id="rId66" xr:uid="{BE13833F-D646-472E-BE2A-0FB6D5E98269}"/>
+    <hyperlink ref="A123" r:id="rId67" xr:uid="{3608A338-4FDA-47E7-A6A2-07BE7F506C81}"/>
+    <hyperlink ref="A122" r:id="rId68" xr:uid="{34F05888-8C06-49DC-8247-C8502CC9343B}"/>
+    <hyperlink ref="A121" r:id="rId69" xr:uid="{F06C995D-80F2-4718-8B7A-7E884C70E35A}"/>
+    <hyperlink ref="A120" r:id="rId70" xr:uid="{8EECF315-9B74-401B-B503-158492C85187}"/>
+    <hyperlink ref="A119" r:id="rId71" xr:uid="{98B10137-6A2F-4DE1-B9AA-38CBDAEAC266}"/>
+    <hyperlink ref="A118" r:id="rId72" xr:uid="{8FA1C60C-A1B7-4B93-A3ED-8D73CFA45199}"/>
+    <hyperlink ref="A117" r:id="rId73" xr:uid="{5CA429E0-C270-414C-801D-3ACD7FE5E4E0}"/>
     <hyperlink ref="A31" r:id="rId74" xr:uid="{89AFF113-B922-4498-A727-ACB21CBC79DB}"/>
-    <hyperlink ref="A32" r:id="rId75" xr:uid="{1F6C8999-A1B4-4381-9BC3-3B48897FCC16}"/>
-    <hyperlink ref="A119" r:id="rId76" xr:uid="{A71A395C-8D4A-4C19-A5D0-944136775560}"/>
-    <hyperlink ref="A118" r:id="rId77" xr:uid="{363A0A3A-CDCE-4D9D-B4F7-5ED91A31BD87}"/>
-    <hyperlink ref="A117" r:id="rId78" xr:uid="{FFA7ADFF-E35F-4CFD-9881-5D40D0EF31E8}"/>
-    <hyperlink ref="A110" r:id="rId79" xr:uid="{98537EAB-5ADC-4B89-B737-44C4B0073E9B}"/>
-    <hyperlink ref="A109" r:id="rId80" xr:uid="{3E152279-5E48-4BCF-ABEF-5B5FB807B432}"/>
-    <hyperlink ref="A108" r:id="rId81" xr:uid="{217767E4-02E5-4B1A-8113-3FEFF3AFAEA1}"/>
-    <hyperlink ref="A107" r:id="rId82" xr:uid="{D76AFD21-9F84-4B0A-A5F2-4357F0D57EC1}"/>
-    <hyperlink ref="A106" r:id="rId83" xr:uid="{B411B6A7-8060-497A-B618-908D3C69C2BC}"/>
-    <hyperlink ref="A105" r:id="rId84" xr:uid="{5E340616-777F-4078-B3C1-7F171DFC40C9}"/>
-    <hyperlink ref="A104" r:id="rId85" xr:uid="{646F43F3-B7FD-4B09-B06B-BB405D4FDA7F}"/>
-    <hyperlink ref="A103" r:id="rId86" xr:uid="{602C6C85-31A1-4E0E-83D9-7FE925A7A27A}"/>
-    <hyperlink ref="A102" r:id="rId87" xr:uid="{0CE9776C-A5BB-4D64-8F1C-2FA6BF88E020}"/>
-    <hyperlink ref="A101" r:id="rId88" xr:uid="{A4524A4B-9B0E-4695-B008-E8FCB0B40926}"/>
-    <hyperlink ref="A100" r:id="rId89" xr:uid="{6B9E60E4-18F6-4226-85E9-3607593CF5FF}"/>
-    <hyperlink ref="A99" r:id="rId90" xr:uid="{32B009BF-E0B7-4162-862B-4D117E701897}"/>
-    <hyperlink ref="A98" r:id="rId91" xr:uid="{6BE33E54-F567-475E-A566-E5D0621B0D1A}"/>
-    <hyperlink ref="A97" r:id="rId92" xr:uid="{DE357C8B-A258-40F7-B5CF-9183FA8C176B}"/>
-    <hyperlink ref="A96" r:id="rId93" xr:uid="{840A93EB-729D-4744-8113-52136456FCF9}"/>
-    <hyperlink ref="A95" r:id="rId94" xr:uid="{8FF7CF0A-6922-432C-98E8-F9CDE421185A}"/>
-    <hyperlink ref="A94" r:id="rId95" xr:uid="{75CB3318-0E2E-4254-A846-A77F69BD2424}"/>
-    <hyperlink ref="A93" r:id="rId96" xr:uid="{9715CA62-0189-4439-8FC7-AED16A01A802}"/>
-    <hyperlink ref="A92" r:id="rId97" xr:uid="{F8859BE9-E8D2-4782-849A-1888ACCB8F02}"/>
-    <hyperlink ref="A91" r:id="rId98" xr:uid="{4819C2D7-9B53-44AD-A52B-B2508CF775FD}"/>
-    <hyperlink ref="A90" r:id="rId99" xr:uid="{0C80FD41-CF26-4F55-BCF6-A1BF5320DA56}"/>
-    <hyperlink ref="A89" r:id="rId100" xr:uid="{D84F23D9-4BC8-43E5-9B9C-D40A192D6747}"/>
-    <hyperlink ref="A88" r:id="rId101" xr:uid="{F7CEC93A-830B-486D-9F46-564ED2250147}"/>
-    <hyperlink ref="A33" r:id="rId102" xr:uid="{68FF08DD-16AE-40C5-8B8C-E37FE6AA4DBE}"/>
-    <hyperlink ref="A34" r:id="rId103" xr:uid="{4EB13555-C743-4F95-BCEA-B6262A647627}"/>
-    <hyperlink ref="A35" r:id="rId104" xr:uid="{619C8C26-E56E-49E6-A551-20A85D3BEEE8}"/>
-    <hyperlink ref="A36" r:id="rId105" xr:uid="{B1451A5E-FD64-4F09-B24B-BA240D33ED0D}"/>
-    <hyperlink ref="A37" r:id="rId106" xr:uid="{AD3383F4-BAA2-4D73-BE08-8A1A931A8211}"/>
-    <hyperlink ref="A87" r:id="rId107" xr:uid="{C5D19A72-A892-46AD-9702-F57A0CCB61F6}"/>
-    <hyperlink ref="A86" r:id="rId108" xr:uid="{88565646-4C69-4700-953E-9FD92F75104C}"/>
-    <hyperlink ref="A85" r:id="rId109" xr:uid="{F7A4B47D-3C92-49AD-9167-1ABB4C2FE6EB}"/>
-    <hyperlink ref="A84" r:id="rId110" xr:uid="{539C005D-6F62-4545-A6AA-2F3F03181F22}"/>
-    <hyperlink ref="A83" r:id="rId111" xr:uid="{0DD2CFA6-2F11-4CFF-8904-B8D335437F29}"/>
-    <hyperlink ref="A82" r:id="rId112" xr:uid="{8B635595-0983-44B6-BBAF-E2470D92C70A}"/>
-    <hyperlink ref="A81" r:id="rId113" xr:uid="{5EEA427C-9ADB-4E48-8AA1-C9CE65036BFD}"/>
-    <hyperlink ref="A80" r:id="rId114" xr:uid="{5869362E-4DC9-4537-B099-910A719A1A46}"/>
-    <hyperlink ref="A79" r:id="rId115" xr:uid="{2B131CD4-6D79-4C38-9206-4B00282C0D9D}"/>
-    <hyperlink ref="A78" r:id="rId116" xr:uid="{2D9583E8-D2BC-4D52-A344-AB441327661B}"/>
-    <hyperlink ref="A77" r:id="rId117" xr:uid="{07AA32F5-9267-4B22-A89C-8F2739A924D3}"/>
-    <hyperlink ref="A76" r:id="rId118" xr:uid="{053FAC32-49E3-41EC-8986-D959A6B6B6D3}"/>
-    <hyperlink ref="A75" r:id="rId119" xr:uid="{7E8B0051-409C-40D8-957A-3BF31CC29220}"/>
-    <hyperlink ref="A74" r:id="rId120" xr:uid="{13BBBCFD-276B-4575-A25C-00C11DA981BD}"/>
-    <hyperlink ref="A73" r:id="rId121" xr:uid="{00D1DD2F-056E-4BA9-98B5-B64BDC1765A3}"/>
-    <hyperlink ref="A72" r:id="rId122" xr:uid="{55BB0AE2-6EB3-4211-BB6D-E607204FC5C5}"/>
-    <hyperlink ref="A71" r:id="rId123" xr:uid="{B4A0FBDE-139E-4A68-AC2E-E355866E3DDE}"/>
-    <hyperlink ref="A70" r:id="rId124" xr:uid="{0EC043E5-09F7-4B59-A693-D30867BCD6EB}"/>
-    <hyperlink ref="A69" r:id="rId125" xr:uid="{679A35BA-A839-4A42-8B33-2E55EBBFA896}"/>
-    <hyperlink ref="A68" r:id="rId126" xr:uid="{42EBA66F-5EFB-46B1-A9BA-20C143DEB1E1}"/>
-    <hyperlink ref="A67" r:id="rId127" xr:uid="{731CD855-6504-4D42-87CE-3C787B6D9BE6}"/>
-    <hyperlink ref="A66" r:id="rId128" xr:uid="{BE51BEC3-6FD4-4BDB-8293-61B14BE977C1}"/>
-    <hyperlink ref="A65" r:id="rId129" xr:uid="{2D45E586-703B-4AA8-91AA-FFFE30245972}"/>
-    <hyperlink ref="A64" r:id="rId130" xr:uid="{A328B25F-16BE-4F6F-8935-1AE7D57866ED}"/>
-    <hyperlink ref="A63" r:id="rId131" xr:uid="{BF242645-1AB0-45A6-9299-2F056A824237}"/>
-    <hyperlink ref="A62" r:id="rId132" xr:uid="{A9F45347-79CA-44C3-8569-7FC7487927F4}"/>
-    <hyperlink ref="A61" r:id="rId133" xr:uid="{DE5BD8B0-8241-4B37-8758-A87A0F0692CA}"/>
-    <hyperlink ref="A60" r:id="rId134" xr:uid="{0B14D8AA-DA6B-4C2F-BBC0-51EE070889CE}"/>
-    <hyperlink ref="A59" r:id="rId135" xr:uid="{29E2FC5E-0747-4CC2-B1F4-1A6B1E4B5882}"/>
-    <hyperlink ref="A58" r:id="rId136" xr:uid="{EB9E01CF-F8C3-4E9C-BFE1-027D3FA5DD51}"/>
-    <hyperlink ref="A57" r:id="rId137" xr:uid="{D2A885E4-E810-4064-8A28-452C9ECCC3D1}"/>
-    <hyperlink ref="A56" r:id="rId138" xr:uid="{52E48E42-83D2-49DB-A375-D6076B6A07D0}"/>
-    <hyperlink ref="A55" r:id="rId139" xr:uid="{0B05983F-42E6-4DC5-B4C1-CCE5D9F8CB19}"/>
-    <hyperlink ref="A54" r:id="rId140" xr:uid="{F1FB27D4-5722-4108-88D0-67DB9A1D0712}"/>
-    <hyperlink ref="A53" r:id="rId141" xr:uid="{E89263D6-0737-455B-812B-9C3A34BB6F76}"/>
-    <hyperlink ref="A52" r:id="rId142" xr:uid="{B923223F-C48C-4A10-A096-8F790C869410}"/>
-    <hyperlink ref="A51" r:id="rId143" xr:uid="{54141EF4-5539-41A3-950B-85E855CEE411}"/>
-    <hyperlink ref="A50" r:id="rId144" xr:uid="{0D3DDAAB-7173-468D-8A78-8475C32DB254}"/>
-    <hyperlink ref="A49" r:id="rId145" xr:uid="{DEE81C4F-AD80-4605-A30F-98A187C94127}"/>
-    <hyperlink ref="A48" r:id="rId146" xr:uid="{EFB94F84-3E3D-484C-901B-D725B5AE69C1}"/>
-    <hyperlink ref="A47" r:id="rId147" xr:uid="{A85A6E07-207A-427E-87C3-6864A87FA0A5}"/>
-    <hyperlink ref="A46" r:id="rId148" xr:uid="{D5EA2BAB-E6EB-4B5B-B886-E2E4C933F6BD}"/>
-    <hyperlink ref="A45" r:id="rId149" xr:uid="{439A0965-8568-4811-AA14-2F88C22387CC}"/>
-    <hyperlink ref="A44" r:id="rId150" xr:uid="{E99A582B-27E9-4CAF-88AE-3291BD4D70B3}"/>
-    <hyperlink ref="A43" r:id="rId151" xr:uid="{F2467FDF-9EC5-401C-AF15-C65DA60D3A40}"/>
-    <hyperlink ref="A42" r:id="rId152" xr:uid="{6F7FCA42-6B9F-46D1-865A-9E05CFB528B7}"/>
-    <hyperlink ref="A41" r:id="rId153" xr:uid="{1ED306F8-AD11-4FE8-B19F-2E8E54951C51}"/>
-    <hyperlink ref="A40" r:id="rId154" xr:uid="{ED8FAC06-6B1E-412E-8EE5-2A8D6E9BE064}"/>
-    <hyperlink ref="A39" r:id="rId155" xr:uid="{05402B02-68B4-4BC3-9946-24E4EFBB85C2}"/>
-    <hyperlink ref="A38" r:id="rId156" xr:uid="{475E9A58-7C8A-4B9F-ADC4-1A8E288B174E}"/>
+    <hyperlink ref="A116" r:id="rId75" xr:uid="{A71A395C-8D4A-4C19-A5D0-944136775560}"/>
+    <hyperlink ref="A115" r:id="rId76" xr:uid="{363A0A3A-CDCE-4D9D-B4F7-5ED91A31BD87}"/>
+    <hyperlink ref="A114" r:id="rId77" xr:uid="{FFA7ADFF-E35F-4CFD-9881-5D40D0EF31E8}"/>
+    <hyperlink ref="A107" r:id="rId78" xr:uid="{98537EAB-5ADC-4B89-B737-44C4B0073E9B}"/>
+    <hyperlink ref="A106" r:id="rId79" xr:uid="{3E152279-5E48-4BCF-ABEF-5B5FB807B432}"/>
+    <hyperlink ref="A105" r:id="rId80" xr:uid="{217767E4-02E5-4B1A-8113-3FEFF3AFAEA1}"/>
+    <hyperlink ref="A104" r:id="rId81" xr:uid="{D76AFD21-9F84-4B0A-A5F2-4357F0D57EC1}"/>
+    <hyperlink ref="A103" r:id="rId82" xr:uid="{B411B6A7-8060-497A-B618-908D3C69C2BC}"/>
+    <hyperlink ref="A102" r:id="rId83" xr:uid="{5E340616-777F-4078-B3C1-7F171DFC40C9}"/>
+    <hyperlink ref="A101" r:id="rId84" xr:uid="{646F43F3-B7FD-4B09-B06B-BB405D4FDA7F}"/>
+    <hyperlink ref="A100" r:id="rId85" xr:uid="{602C6C85-31A1-4E0E-83D9-7FE925A7A27A}"/>
+    <hyperlink ref="A99" r:id="rId86" xr:uid="{0CE9776C-A5BB-4D64-8F1C-2FA6BF88E020}"/>
+    <hyperlink ref="A98" r:id="rId87" xr:uid="{A4524A4B-9B0E-4695-B008-E8FCB0B40926}"/>
+    <hyperlink ref="A97" r:id="rId88" xr:uid="{6B9E60E4-18F6-4226-85E9-3607593CF5FF}"/>
+    <hyperlink ref="A96" r:id="rId89" xr:uid="{32B009BF-E0B7-4162-862B-4D117E701897}"/>
+    <hyperlink ref="A95" r:id="rId90" xr:uid="{6BE33E54-F567-475E-A566-E5D0621B0D1A}"/>
+    <hyperlink ref="A94" r:id="rId91" xr:uid="{DE357C8B-A258-40F7-B5CF-9183FA8C176B}"/>
+    <hyperlink ref="A93" r:id="rId92" xr:uid="{840A93EB-729D-4744-8113-52136456FCF9}"/>
+    <hyperlink ref="A92" r:id="rId93" xr:uid="{8FF7CF0A-6922-432C-98E8-F9CDE421185A}"/>
+    <hyperlink ref="A91" r:id="rId94" xr:uid="{75CB3318-0E2E-4254-A846-A77F69BD2424}"/>
+    <hyperlink ref="A90" r:id="rId95" xr:uid="{9715CA62-0189-4439-8FC7-AED16A01A802}"/>
+    <hyperlink ref="A89" r:id="rId96" xr:uid="{F8859BE9-E8D2-4782-849A-1888ACCB8F02}"/>
+    <hyperlink ref="A88" r:id="rId97" xr:uid="{4819C2D7-9B53-44AD-A52B-B2508CF775FD}"/>
+    <hyperlink ref="A87" r:id="rId98" xr:uid="{0C80FD41-CF26-4F55-BCF6-A1BF5320DA56}"/>
+    <hyperlink ref="A86" r:id="rId99" xr:uid="{D84F23D9-4BC8-43E5-9B9C-D40A192D6747}"/>
+    <hyperlink ref="A85" r:id="rId100" xr:uid="{F7CEC93A-830B-486D-9F46-564ED2250147}"/>
+    <hyperlink ref="A32" r:id="rId101" xr:uid="{68FF08DD-16AE-40C5-8B8C-E37FE6AA4DBE}"/>
+    <hyperlink ref="A33" r:id="rId102" xr:uid="{619C8C26-E56E-49E6-A551-20A85D3BEEE8}"/>
+    <hyperlink ref="A34" r:id="rId103" xr:uid="{AD3383F4-BAA2-4D73-BE08-8A1A931A8211}"/>
+    <hyperlink ref="A84" r:id="rId104" xr:uid="{C5D19A72-A892-46AD-9702-F57A0CCB61F6}"/>
+    <hyperlink ref="A83" r:id="rId105" xr:uid="{88565646-4C69-4700-953E-9FD92F75104C}"/>
+    <hyperlink ref="A82" r:id="rId106" xr:uid="{F7A4B47D-3C92-49AD-9167-1ABB4C2FE6EB}"/>
+    <hyperlink ref="A81" r:id="rId107" xr:uid="{539C005D-6F62-4545-A6AA-2F3F03181F22}"/>
+    <hyperlink ref="A80" r:id="rId108" xr:uid="{0DD2CFA6-2F11-4CFF-8904-B8D335437F29}"/>
+    <hyperlink ref="A79" r:id="rId109" xr:uid="{8B635595-0983-44B6-BBAF-E2470D92C70A}"/>
+    <hyperlink ref="A78" r:id="rId110" xr:uid="{5EEA427C-9ADB-4E48-8AA1-C9CE65036BFD}"/>
+    <hyperlink ref="A77" r:id="rId111" xr:uid="{5869362E-4DC9-4537-B099-910A719A1A46}"/>
+    <hyperlink ref="A76" r:id="rId112" xr:uid="{2B131CD4-6D79-4C38-9206-4B00282C0D9D}"/>
+    <hyperlink ref="A75" r:id="rId113" xr:uid="{2D9583E8-D2BC-4D52-A344-AB441327661B}"/>
+    <hyperlink ref="A74" r:id="rId114" xr:uid="{07AA32F5-9267-4B22-A89C-8F2739A924D3}"/>
+    <hyperlink ref="A73" r:id="rId115" xr:uid="{053FAC32-49E3-41EC-8986-D959A6B6B6D3}"/>
+    <hyperlink ref="A72" r:id="rId116" xr:uid="{7E8B0051-409C-40D8-957A-3BF31CC29220}"/>
+    <hyperlink ref="A71" r:id="rId117" xr:uid="{13BBBCFD-276B-4575-A25C-00C11DA981BD}"/>
+    <hyperlink ref="A70" r:id="rId118" xr:uid="{00D1DD2F-056E-4BA9-98B5-B64BDC1765A3}"/>
+    <hyperlink ref="A69" r:id="rId119" xr:uid="{55BB0AE2-6EB3-4211-BB6D-E607204FC5C5}"/>
+    <hyperlink ref="A68" r:id="rId120" xr:uid="{B4A0FBDE-139E-4A68-AC2E-E355866E3DDE}"/>
+    <hyperlink ref="A67" r:id="rId121" xr:uid="{0EC043E5-09F7-4B59-A693-D30867BCD6EB}"/>
+    <hyperlink ref="A66" r:id="rId122" xr:uid="{679A35BA-A839-4A42-8B33-2E55EBBFA896}"/>
+    <hyperlink ref="A65" r:id="rId123" xr:uid="{42EBA66F-5EFB-46B1-A9BA-20C143DEB1E1}"/>
+    <hyperlink ref="A64" r:id="rId124" xr:uid="{731CD855-6504-4D42-87CE-3C787B6D9BE6}"/>
+    <hyperlink ref="A63" r:id="rId125" xr:uid="{BE51BEC3-6FD4-4BDB-8293-61B14BE977C1}"/>
+    <hyperlink ref="A62" r:id="rId126" xr:uid="{2D45E586-703B-4AA8-91AA-FFFE30245972}"/>
+    <hyperlink ref="A61" r:id="rId127" xr:uid="{A328B25F-16BE-4F6F-8935-1AE7D57866ED}"/>
+    <hyperlink ref="A60" r:id="rId128" xr:uid="{BF242645-1AB0-45A6-9299-2F056A824237}"/>
+    <hyperlink ref="A59" r:id="rId129" xr:uid="{A9F45347-79CA-44C3-8569-7FC7487927F4}"/>
+    <hyperlink ref="A58" r:id="rId130" xr:uid="{DE5BD8B0-8241-4B37-8758-A87A0F0692CA}"/>
+    <hyperlink ref="A57" r:id="rId131" xr:uid="{0B14D8AA-DA6B-4C2F-BBC0-51EE070889CE}"/>
+    <hyperlink ref="A56" r:id="rId132" xr:uid="{29E2FC5E-0747-4CC2-B1F4-1A6B1E4B5882}"/>
+    <hyperlink ref="A55" r:id="rId133" xr:uid="{EB9E01CF-F8C3-4E9C-BFE1-027D3FA5DD51}"/>
+    <hyperlink ref="A54" r:id="rId134" xr:uid="{D2A885E4-E810-4064-8A28-452C9ECCC3D1}"/>
+    <hyperlink ref="A53" r:id="rId135" xr:uid="{52E48E42-83D2-49DB-A375-D6076B6A07D0}"/>
+    <hyperlink ref="A52" r:id="rId136" xr:uid="{0B05983F-42E6-4DC5-B4C1-CCE5D9F8CB19}"/>
+    <hyperlink ref="A51" r:id="rId137" xr:uid="{F1FB27D4-5722-4108-88D0-67DB9A1D0712}"/>
+    <hyperlink ref="A50" r:id="rId138" xr:uid="{E89263D6-0737-455B-812B-9C3A34BB6F76}"/>
+    <hyperlink ref="A49" r:id="rId139" xr:uid="{B923223F-C48C-4A10-A096-8F790C869410}"/>
+    <hyperlink ref="A48" r:id="rId140" xr:uid="{54141EF4-5539-41A3-950B-85E855CEE411}"/>
+    <hyperlink ref="A47" r:id="rId141" xr:uid="{0D3DDAAB-7173-468D-8A78-8475C32DB254}"/>
+    <hyperlink ref="A46" r:id="rId142" xr:uid="{DEE81C4F-AD80-4605-A30F-98A187C94127}"/>
+    <hyperlink ref="A45" r:id="rId143" xr:uid="{EFB94F84-3E3D-484C-901B-D725B5AE69C1}"/>
+    <hyperlink ref="A44" r:id="rId144" xr:uid="{A85A6E07-207A-427E-87C3-6864A87FA0A5}"/>
+    <hyperlink ref="A43" r:id="rId145" xr:uid="{D5EA2BAB-E6EB-4B5B-B886-E2E4C933F6BD}"/>
+    <hyperlink ref="A42" r:id="rId146" xr:uid="{439A0965-8568-4811-AA14-2F88C22387CC}"/>
+    <hyperlink ref="A41" r:id="rId147" xr:uid="{E99A582B-27E9-4CAF-88AE-3291BD4D70B3}"/>
+    <hyperlink ref="A40" r:id="rId148" xr:uid="{F2467FDF-9EC5-401C-AF15-C65DA60D3A40}"/>
+    <hyperlink ref="A39" r:id="rId149" xr:uid="{6F7FCA42-6B9F-46D1-865A-9E05CFB528B7}"/>
+    <hyperlink ref="A38" r:id="rId150" xr:uid="{1ED306F8-AD11-4FE8-B19F-2E8E54951C51}"/>
+    <hyperlink ref="A37" r:id="rId151" xr:uid="{ED8FAC06-6B1E-412E-8EE5-2A8D6E9BE064}"/>
+    <hyperlink ref="A36" r:id="rId152" xr:uid="{05402B02-68B4-4BC3-9946-24E4EFBB85C2}"/>
+    <hyperlink ref="A35" r:id="rId153" xr:uid="{475E9A58-7C8A-4B9F-ADC4-1A8E288B174E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId157"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId154"/>
 </worksheet>
 </file>